--- a/Bases_de_Dados_(2022-2024)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,15 @@
     <t>['25', '88']</t>
   </si>
   <si>
+    <t>['4505']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['-1']</t>
+  </si>
+  <si>
     <t>['90']</t>
   </si>
   <si>
@@ -503,9 +512,6 @@
   </si>
   <si>
     <t>['-1', '-1', '-1']</t>
-  </si>
-  <si>
-    <t>['83']</t>
   </si>
   <si>
     <t>['7']</t>
@@ -617,6 +623,9 @@
   </si>
   <si>
     <t>['46', '85']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
 </sst>
 </file>
@@ -978,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK99"/>
+  <dimension ref="A1:BK103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1222,7 +1231,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1309,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT2">
         <v>0.86</v>
@@ -1413,7 +1422,7 @@
         <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1500,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT3">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1604,7 +1613,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1691,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT4">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1795,7 +1804,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2267,7 +2276,7 @@
         <v>2.71</v>
       </c>
       <c r="AT7">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2368,7 +2377,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2559,7 +2568,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q9">
         <v>10</v>
@@ -2750,7 +2759,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2941,7 +2950,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3132,7 +3141,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3323,7 +3332,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3896,7 +3905,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3983,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT16">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU16">
         <v>1.29</v>
@@ -4087,7 +4096,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4174,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT17">
         <v>0.86</v>
@@ -4368,7 +4377,7 @@
         <v>1.43</v>
       </c>
       <c r="AT18">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4556,10 +4565,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT19">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU19">
         <v>2.07</v>
@@ -4660,7 +4669,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4750,7 +4759,7 @@
         <v>1.67</v>
       </c>
       <c r="AT20">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU20">
         <v>1.68</v>
@@ -5042,7 +5051,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5233,7 +5242,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5424,7 +5433,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>13</v>
@@ -5997,7 +6006,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6275,10 +6284,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT28">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU28">
         <v>1.41</v>
@@ -6657,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT30">
         <v>1.43</v>
@@ -6851,7 +6860,7 @@
         <v>2.71</v>
       </c>
       <c r="AT31">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU31">
         <v>1.03</v>
@@ -7039,7 +7048,7 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT32">
         <v>1.14</v>
@@ -7143,7 +7152,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7233,7 +7242,7 @@
         <v>1.57</v>
       </c>
       <c r="AT33">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU33">
         <v>2.42</v>
@@ -7334,7 +7343,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7716,7 +7725,7 @@
         <v>96</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7806,7 +7815,7 @@
         <v>0.88</v>
       </c>
       <c r="AT36">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU36">
         <v>1.89</v>
@@ -7907,7 +7916,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8480,7 +8489,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9053,7 +9062,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9140,10 +9149,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT43">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU43">
         <v>1.3</v>
@@ -9244,7 +9253,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9334,7 +9343,7 @@
         <v>2</v>
       </c>
       <c r="AT44">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU44">
         <v>1.65</v>
@@ -9435,7 +9444,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9713,7 +9722,7 @@
         <v>1.67</v>
       </c>
       <c r="AS46">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT46">
         <v>2</v>
@@ -9817,7 +9826,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10008,7 +10017,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -10390,7 +10399,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q50">
         <v>9</v>
@@ -10668,7 +10677,7 @@
         <v>2.33</v>
       </c>
       <c r="AS51">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT51">
         <v>1.13</v>
@@ -10772,7 +10781,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -10859,10 +10868,10 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT52">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU52">
         <v>1.54</v>
@@ -10963,7 +10972,7 @@
         <v>82</v>
       </c>
       <c r="P53" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11244,7 +11253,7 @@
         <v>2.71</v>
       </c>
       <c r="AT54">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU54">
         <v>1.02</v>
@@ -11536,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -11918,7 +11927,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12300,7 +12309,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12390,7 +12399,7 @@
         <v>1.71</v>
       </c>
       <c r="AT60">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU60">
         <v>1.44</v>
@@ -12581,7 +12590,7 @@
         <v>1.25</v>
       </c>
       <c r="AT61">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU61">
         <v>1.77</v>
@@ -12769,7 +12778,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT62">
         <v>1.14</v>
@@ -12873,7 +12882,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -12960,7 +12969,7 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT63">
         <v>1.13</v>
@@ -13154,7 +13163,7 @@
         <v>1.29</v>
       </c>
       <c r="AT64">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU64">
         <v>1.7</v>
@@ -13255,7 +13264,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13637,7 +13646,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>16</v>
@@ -13828,7 +13837,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13915,7 +13924,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT68">
         <v>1</v>
@@ -14019,7 +14028,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>9</v>
@@ -14109,7 +14118,7 @@
         <v>1.57</v>
       </c>
       <c r="AT69">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU69">
         <v>1.07</v>
@@ -14401,7 +14410,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14592,7 +14601,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15064,7 +15073,7 @@
         <v>1.57</v>
       </c>
       <c r="AT74">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU74">
         <v>1.95</v>
@@ -15165,7 +15174,7 @@
         <v>139</v>
       </c>
       <c r="P75" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15255,7 +15264,7 @@
         <v>0.88</v>
       </c>
       <c r="AT75">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU75">
         <v>1.83</v>
@@ -15356,7 +15365,7 @@
         <v>128</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15443,7 +15452,7 @@
         <v>0.6</v>
       </c>
       <c r="AS76">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -15637,7 +15646,7 @@
         <v>1.71</v>
       </c>
       <c r="AT77">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU77">
         <v>1.51</v>
@@ -15825,7 +15834,7 @@
         <v>1.6</v>
       </c>
       <c r="AS78">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT78">
         <v>1.14</v>
@@ -15929,7 +15938,7 @@
         <v>82</v>
       </c>
       <c r="P79" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16311,7 +16320,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q81">
         <v>11</v>
@@ -16401,7 +16410,7 @@
         <v>1.57</v>
       </c>
       <c r="AT81">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU81">
         <v>1.17</v>
@@ -16502,7 +16511,7 @@
         <v>82</v>
       </c>
       <c r="P82" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16783,7 +16792,7 @@
         <v>1.57</v>
       </c>
       <c r="AT83">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU83">
         <v>1.88</v>
@@ -16884,7 +16893,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17075,7 +17084,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q85">
         <v>12</v>
@@ -17356,7 +17365,7 @@
         <v>1</v>
       </c>
       <c r="AT86">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU86">
         <v>1.17</v>
@@ -17735,7 +17744,7 @@
         <v>1.17</v>
       </c>
       <c r="AS88">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT88">
         <v>1</v>
@@ -17839,7 +17848,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -17926,7 +17935,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT89">
         <v>1</v>
@@ -18030,7 +18039,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18221,7 +18230,7 @@
         <v>82</v>
       </c>
       <c r="P91" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18311,7 +18320,7 @@
         <v>1.43</v>
       </c>
       <c r="AT91">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU91">
         <v>1.44</v>
@@ -18985,7 +18994,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19558,7 +19567,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19749,7 +19758,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -19890,6 +19899,770 @@
         <v>14</v>
       </c>
       <c r="BK99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>5409870</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45122.54166666666</v>
+      </c>
+      <c r="F100">
+        <v>15</v>
+      </c>
+      <c r="G100" t="s">
+        <v>65</v>
+      </c>
+      <c r="H100" t="s">
+        <v>74</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+      <c r="O100" t="s">
+        <v>143</v>
+      </c>
+      <c r="P100" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q100">
+        <v>6</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>8</v>
+      </c>
+      <c r="T100">
+        <v>2.4</v>
+      </c>
+      <c r="U100">
+        <v>2.2</v>
+      </c>
+      <c r="V100">
+        <v>4.33</v>
+      </c>
+      <c r="W100">
+        <v>1.4</v>
+      </c>
+      <c r="X100">
+        <v>2.73</v>
+      </c>
+      <c r="Y100">
+        <v>2.81</v>
+      </c>
+      <c r="Z100">
+        <v>1.38</v>
+      </c>
+      <c r="AA100">
+        <v>7.2</v>
+      </c>
+      <c r="AB100">
+        <v>1.06</v>
+      </c>
+      <c r="AC100">
+        <v>1.8</v>
+      </c>
+      <c r="AD100">
+        <v>3.4</v>
+      </c>
+      <c r="AE100">
+        <v>4</v>
+      </c>
+      <c r="AF100">
+        <v>1.04</v>
+      </c>
+      <c r="AG100">
+        <v>11</v>
+      </c>
+      <c r="AH100">
+        <v>1.28</v>
+      </c>
+      <c r="AI100">
+        <v>3.2</v>
+      </c>
+      <c r="AJ100">
+        <v>1.95</v>
+      </c>
+      <c r="AK100">
+        <v>1.85</v>
+      </c>
+      <c r="AL100">
+        <v>1.83</v>
+      </c>
+      <c r="AM100">
+        <v>1.83</v>
+      </c>
+      <c r="AN100">
+        <v>1.17</v>
+      </c>
+      <c r="AO100">
+        <v>1.25</v>
+      </c>
+      <c r="AP100">
+        <v>1.96</v>
+      </c>
+      <c r="AQ100">
+        <v>2.57</v>
+      </c>
+      <c r="AR100">
+        <v>0.71</v>
+      </c>
+      <c r="AS100">
+        <v>2.38</v>
+      </c>
+      <c r="AT100">
+        <v>0.75</v>
+      </c>
+      <c r="AU100">
+        <v>1.61</v>
+      </c>
+      <c r="AV100">
+        <v>1.56</v>
+      </c>
+      <c r="AW100">
+        <v>3.17</v>
+      </c>
+      <c r="AX100">
+        <v>0</v>
+      </c>
+      <c r="AY100">
+        <v>0</v>
+      </c>
+      <c r="AZ100">
+        <v>0</v>
+      </c>
+      <c r="BA100">
+        <v>0</v>
+      </c>
+      <c r="BB100">
+        <v>0</v>
+      </c>
+      <c r="BC100">
+        <v>2.2</v>
+      </c>
+      <c r="BD100">
+        <v>0</v>
+      </c>
+      <c r="BE100">
+        <v>0</v>
+      </c>
+      <c r="BF100">
+        <v>3</v>
+      </c>
+      <c r="BG100">
+        <v>2</v>
+      </c>
+      <c r="BH100">
+        <v>8</v>
+      </c>
+      <c r="BI100">
+        <v>8</v>
+      </c>
+      <c r="BJ100">
+        <v>11</v>
+      </c>
+      <c r="BK100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>5409867</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45122.6875</v>
+      </c>
+      <c r="F101">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s">
+        <v>68</v>
+      </c>
+      <c r="H101" t="s">
+        <v>71</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
+        <v>153</v>
+      </c>
+      <c r="P101" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q101">
+        <v>9</v>
+      </c>
+      <c r="R101">
+        <v>6</v>
+      </c>
+      <c r="S101">
+        <v>15</v>
+      </c>
+      <c r="T101">
+        <v>3.1</v>
+      </c>
+      <c r="U101">
+        <v>2.2</v>
+      </c>
+      <c r="V101">
+        <v>3.1</v>
+      </c>
+      <c r="W101">
+        <v>1.43</v>
+      </c>
+      <c r="X101">
+        <v>2.62</v>
+      </c>
+      <c r="Y101">
+        <v>2.99</v>
+      </c>
+      <c r="Z101">
+        <v>1.34</v>
+      </c>
+      <c r="AA101">
+        <v>7.6</v>
+      </c>
+      <c r="AB101">
+        <v>1.05</v>
+      </c>
+      <c r="AC101">
+        <v>2.5</v>
+      </c>
+      <c r="AD101">
+        <v>3.2</v>
+      </c>
+      <c r="AE101">
+        <v>2.63</v>
+      </c>
+      <c r="AF101">
+        <v>1.06</v>
+      </c>
+      <c r="AG101">
+        <v>9</v>
+      </c>
+      <c r="AH101">
+        <v>1.33</v>
+      </c>
+      <c r="AI101">
+        <v>2.93</v>
+      </c>
+      <c r="AJ101">
+        <v>2.04</v>
+      </c>
+      <c r="AK101">
+        <v>1.71</v>
+      </c>
+      <c r="AL101">
+        <v>1.77</v>
+      </c>
+      <c r="AM101">
+        <v>1.89</v>
+      </c>
+      <c r="AN101">
+        <v>1.44</v>
+      </c>
+      <c r="AO101">
+        <v>1.3</v>
+      </c>
+      <c r="AP101">
+        <v>1.44</v>
+      </c>
+      <c r="AQ101">
+        <v>1</v>
+      </c>
+      <c r="AR101">
+        <v>2.17</v>
+      </c>
+      <c r="AS101">
+        <v>1</v>
+      </c>
+      <c r="AT101">
+        <v>2</v>
+      </c>
+      <c r="AU101">
+        <v>1.25</v>
+      </c>
+      <c r="AV101">
+        <v>1.4</v>
+      </c>
+      <c r="AW101">
+        <v>2.65</v>
+      </c>
+      <c r="AX101">
+        <v>0</v>
+      </c>
+      <c r="AY101">
+        <v>0</v>
+      </c>
+      <c r="AZ101">
+        <v>0</v>
+      </c>
+      <c r="BA101">
+        <v>0</v>
+      </c>
+      <c r="BB101">
+        <v>0</v>
+      </c>
+      <c r="BC101">
+        <v>0</v>
+      </c>
+      <c r="BD101">
+        <v>0</v>
+      </c>
+      <c r="BE101">
+        <v>0</v>
+      </c>
+      <c r="BF101">
+        <v>7</v>
+      </c>
+      <c r="BG101">
+        <v>7</v>
+      </c>
+      <c r="BH101">
+        <v>9</v>
+      </c>
+      <c r="BI101">
+        <v>5</v>
+      </c>
+      <c r="BJ101">
+        <v>16</v>
+      </c>
+      <c r="BK101">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>5409871</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F102">
+        <v>15</v>
+      </c>
+      <c r="G102" t="s">
+        <v>66</v>
+      </c>
+      <c r="H102" t="s">
+        <v>72</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102" t="s">
+        <v>154</v>
+      </c>
+      <c r="P102" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q102">
+        <v>6</v>
+      </c>
+      <c r="R102">
+        <v>3</v>
+      </c>
+      <c r="S102">
+        <v>9</v>
+      </c>
+      <c r="T102">
+        <v>2.63</v>
+      </c>
+      <c r="U102">
+        <v>2.1</v>
+      </c>
+      <c r="V102">
+        <v>4</v>
+      </c>
+      <c r="W102">
+        <v>1.44</v>
+      </c>
+      <c r="X102">
+        <v>2.43</v>
+      </c>
+      <c r="Y102">
+        <v>2.99</v>
+      </c>
+      <c r="Z102">
+        <v>1.24</v>
+      </c>
+      <c r="AA102">
+        <v>7.2</v>
+      </c>
+      <c r="AB102">
+        <v>1.06</v>
+      </c>
+      <c r="AC102">
+        <v>1.95</v>
+      </c>
+      <c r="AD102">
+        <v>3.4</v>
+      </c>
+      <c r="AE102">
+        <v>3.5</v>
+      </c>
+      <c r="AF102">
+        <v>1.04</v>
+      </c>
+      <c r="AG102">
+        <v>10.5</v>
+      </c>
+      <c r="AH102">
+        <v>1.3</v>
+      </c>
+      <c r="AI102">
+        <v>3.15</v>
+      </c>
+      <c r="AJ102">
+        <v>1.91</v>
+      </c>
+      <c r="AK102">
+        <v>1.7</v>
+      </c>
+      <c r="AL102">
+        <v>1.83</v>
+      </c>
+      <c r="AM102">
+        <v>1.86</v>
+      </c>
+      <c r="AN102">
+        <v>1.29</v>
+      </c>
+      <c r="AO102">
+        <v>1.25</v>
+      </c>
+      <c r="AP102">
+        <v>1.74</v>
+      </c>
+      <c r="AQ102">
+        <v>2.17</v>
+      </c>
+      <c r="AR102">
+        <v>0.17</v>
+      </c>
+      <c r="AS102">
+        <v>2.29</v>
+      </c>
+      <c r="AT102">
+        <v>0.14</v>
+      </c>
+      <c r="AU102">
+        <v>1.58</v>
+      </c>
+      <c r="AV102">
+        <v>1.39</v>
+      </c>
+      <c r="AW102">
+        <v>2.97</v>
+      </c>
+      <c r="AX102">
+        <v>0</v>
+      </c>
+      <c r="AY102">
+        <v>0</v>
+      </c>
+      <c r="AZ102">
+        <v>0</v>
+      </c>
+      <c r="BA102">
+        <v>0</v>
+      </c>
+      <c r="BB102">
+        <v>0</v>
+      </c>
+      <c r="BC102">
+        <v>1.83</v>
+      </c>
+      <c r="BD102">
+        <v>1.95</v>
+      </c>
+      <c r="BE102">
+        <v>0</v>
+      </c>
+      <c r="BF102">
+        <v>5</v>
+      </c>
+      <c r="BG102">
+        <v>3</v>
+      </c>
+      <c r="BH102">
+        <v>8</v>
+      </c>
+      <c r="BI102">
+        <v>2</v>
+      </c>
+      <c r="BJ102">
+        <v>13</v>
+      </c>
+      <c r="BK102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>5409872</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F103">
+        <v>15</v>
+      </c>
+      <c r="G103" t="s">
+        <v>67</v>
+      </c>
+      <c r="H103" t="s">
+        <v>78</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>155</v>
+      </c>
+      <c r="P103" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q103">
+        <v>4</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
+      </c>
+      <c r="S103">
+        <v>5</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
+        <v>2.05</v>
+      </c>
+      <c r="V103">
+        <v>4</v>
+      </c>
+      <c r="W103">
+        <v>1.44</v>
+      </c>
+      <c r="X103">
+        <v>2.59</v>
+      </c>
+      <c r="Y103">
+        <v>3.04</v>
+      </c>
+      <c r="Z103">
+        <v>1.33</v>
+      </c>
+      <c r="AA103">
+        <v>7.7</v>
+      </c>
+      <c r="AB103">
+        <v>1.05</v>
+      </c>
+      <c r="AC103">
+        <v>2</v>
+      </c>
+      <c r="AD103">
+        <v>3.2</v>
+      </c>
+      <c r="AE103">
+        <v>3.5</v>
+      </c>
+      <c r="AF103">
+        <v>1.04</v>
+      </c>
+      <c r="AG103">
+        <v>7.5</v>
+      </c>
+      <c r="AH103">
+        <v>1.34</v>
+      </c>
+      <c r="AI103">
+        <v>2.88</v>
+      </c>
+      <c r="AJ103">
+        <v>1.98</v>
+      </c>
+      <c r="AK103">
+        <v>1.65</v>
+      </c>
+      <c r="AL103">
+        <v>1.97</v>
+      </c>
+      <c r="AM103">
+        <v>1.71</v>
+      </c>
+      <c r="AN103">
+        <v>1.27</v>
+      </c>
+      <c r="AO103">
+        <v>1.28</v>
+      </c>
+      <c r="AP103">
+        <v>1.68</v>
+      </c>
+      <c r="AQ103">
+        <v>1.43</v>
+      </c>
+      <c r="AR103">
+        <v>0.57</v>
+      </c>
+      <c r="AS103">
+        <v>1.38</v>
+      </c>
+      <c r="AT103">
+        <v>0.63</v>
+      </c>
+      <c r="AU103">
+        <v>1.53</v>
+      </c>
+      <c r="AV103">
+        <v>1.23</v>
+      </c>
+      <c r="AW103">
+        <v>2.76</v>
+      </c>
+      <c r="AX103">
+        <v>0</v>
+      </c>
+      <c r="AY103">
+        <v>0</v>
+      </c>
+      <c r="AZ103">
+        <v>0</v>
+      </c>
+      <c r="BA103">
+        <v>0</v>
+      </c>
+      <c r="BB103">
+        <v>0</v>
+      </c>
+      <c r="BC103">
+        <v>2.1</v>
+      </c>
+      <c r="BD103">
+        <v>0</v>
+      </c>
+      <c r="BE103">
+        <v>0</v>
+      </c>
+      <c r="BF103">
+        <v>7</v>
+      </c>
+      <c r="BG103">
+        <v>3</v>
+      </c>
+      <c r="BH103">
+        <v>4</v>
+      </c>
+      <c r="BI103">
+        <v>4</v>
+      </c>
+      <c r="BJ103">
+        <v>11</v>
+      </c>
+      <c r="BK103">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,7 +481,10 @@
     <t>['83']</t>
   </si>
   <si>
-    <t>['-1']</t>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
   <si>
     <t>['90']</t>
@@ -626,6 +629,12 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['9001', '9005']</t>
   </si>
 </sst>
 </file>
@@ -987,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK103"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1231,7 +1240,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1321,7 +1330,7 @@
         <v>2.38</v>
       </c>
       <c r="AT2">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1422,7 +1431,7 @@
         <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1613,7 +1622,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1804,7 +1813,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2082,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT6">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2273,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT7">
         <v>2</v>
@@ -2377,7 +2386,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2568,7 +2577,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>10</v>
@@ -2759,7 +2768,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2950,7 +2959,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3141,7 +3150,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3332,7 +3341,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3610,7 +3619,7 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -3804,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="AT15">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU15">
         <v>0.8</v>
@@ -3905,7 +3914,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4186,7 +4195,7 @@
         <v>2.29</v>
       </c>
       <c r="AT17">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU17">
         <v>1.34</v>
@@ -4374,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT18">
         <v>0.75</v>
@@ -4669,7 +4678,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4756,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT20">
         <v>0.63</v>
@@ -5051,7 +5060,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5138,7 +5147,7 @@
         <v>1.5</v>
       </c>
       <c r="AS22">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT22">
         <v>1</v>
@@ -5242,7 +5251,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5433,7 +5442,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>13</v>
@@ -6006,7 +6015,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6478,7 +6487,7 @@
         <v>1.25</v>
       </c>
       <c r="AT29">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU29">
         <v>2.24</v>
@@ -6857,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT31">
         <v>0.75</v>
@@ -7152,7 +7161,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7343,7 +7352,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7430,10 +7439,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT34">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU34">
         <v>1.82</v>
@@ -7725,7 +7734,7 @@
         <v>96</v>
       </c>
       <c r="P36" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7916,7 +7925,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8489,7 +8498,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8958,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT42">
         <v>0.57</v>
@@ -9062,7 +9071,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9253,7 +9262,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9444,7 +9453,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9534,7 +9543,7 @@
         <v>1.25</v>
       </c>
       <c r="AT45">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU45">
         <v>1.88</v>
@@ -9826,7 +9835,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10017,7 +10026,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -10295,7 +10304,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT49">
         <v>1.43</v>
@@ -10399,7 +10408,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q50">
         <v>9</v>
@@ -10489,7 +10498,7 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU50">
         <v>1.15</v>
@@ -10781,7 +10790,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -10972,7 +10981,7 @@
         <v>82</v>
       </c>
       <c r="P53" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11062,7 +11071,7 @@
         <v>1.29</v>
       </c>
       <c r="AT53">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU53">
         <v>1.83</v>
@@ -11250,7 +11259,7 @@
         <v>0.33</v>
       </c>
       <c r="AS54">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT54">
         <v>0.14</v>
@@ -11545,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -11632,7 +11641,7 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT56">
         <v>1</v>
@@ -11823,7 +11832,7 @@
         <v>1.75</v>
       </c>
       <c r="AS57">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT57">
         <v>1.14</v>
@@ -12014,7 +12023,7 @@
         <v>0.75</v>
       </c>
       <c r="AS58">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12309,7 +12318,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12781,7 +12790,7 @@
         <v>2.38</v>
       </c>
       <c r="AT62">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU62">
         <v>1.52</v>
@@ -12882,7 +12891,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13264,7 +13273,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13542,10 +13551,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT66">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU66">
         <v>1.47</v>
@@ -13646,7 +13655,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>16</v>
@@ -13837,7 +13846,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14028,7 +14037,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>9</v>
@@ -14306,7 +14315,7 @@
         <v>0.25</v>
       </c>
       <c r="AS70">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT70">
         <v>0.57</v>
@@ -14410,7 +14419,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14500,7 +14509,7 @@
         <v>1.71</v>
       </c>
       <c r="AT71">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU71">
         <v>1.44</v>
@@ -14601,7 +14610,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15174,7 +15183,7 @@
         <v>139</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15365,7 +15374,7 @@
         <v>128</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15938,7 +15947,7 @@
         <v>82</v>
       </c>
       <c r="P79" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16216,7 +16225,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT80">
         <v>1</v>
@@ -16320,7 +16329,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q81">
         <v>11</v>
@@ -16511,7 +16520,7 @@
         <v>82</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16598,7 +16607,7 @@
         <v>1.6</v>
       </c>
       <c r="AS82">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT82">
         <v>2</v>
@@ -16893,7 +16902,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -16980,7 +16989,7 @@
         <v>1.33</v>
       </c>
       <c r="AS84">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT84">
         <v>1.13</v>
@@ -17084,7 +17093,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q85">
         <v>12</v>
@@ -17174,7 +17183,7 @@
         <v>1.29</v>
       </c>
       <c r="AT85">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU85">
         <v>1.67</v>
@@ -17848,7 +17857,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18039,7 +18048,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18129,7 +18138,7 @@
         <v>0.88</v>
       </c>
       <c r="AT90">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU90">
         <v>1.66</v>
@@ -18230,7 +18239,7 @@
         <v>82</v>
       </c>
       <c r="P91" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18317,7 +18326,7 @@
         <v>0.17</v>
       </c>
       <c r="AS91">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT91">
         <v>0.63</v>
@@ -18994,7 +19003,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19567,7 +19576,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19758,7 +19767,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -19949,7 +19958,7 @@
         <v>143</v>
       </c>
       <c r="P100" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20140,7 +20149,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20522,7 +20531,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -20664,6 +20673,579 @@
       </c>
       <c r="BK103">
         <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>5409873</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45123.70833333334</v>
+      </c>
+      <c r="F104">
+        <v>15</v>
+      </c>
+      <c r="G104" t="s">
+        <v>69</v>
+      </c>
+      <c r="H104" t="s">
+        <v>75</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>156</v>
+      </c>
+      <c r="P104" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q104">
+        <v>7</v>
+      </c>
+      <c r="R104">
+        <v>3</v>
+      </c>
+      <c r="S104">
+        <v>10</v>
+      </c>
+      <c r="T104">
+        <v>3</v>
+      </c>
+      <c r="U104">
+        <v>2</v>
+      </c>
+      <c r="V104">
+        <v>3.6</v>
+      </c>
+      <c r="W104">
+        <v>1.46</v>
+      </c>
+      <c r="X104">
+        <v>2.53</v>
+      </c>
+      <c r="Y104">
+        <v>3.15</v>
+      </c>
+      <c r="Z104">
+        <v>1.31</v>
+      </c>
+      <c r="AA104">
+        <v>8.1</v>
+      </c>
+      <c r="AB104">
+        <v>1.04</v>
+      </c>
+      <c r="AC104">
+        <v>2.15</v>
+      </c>
+      <c r="AD104">
+        <v>3.2</v>
+      </c>
+      <c r="AE104">
+        <v>3.2</v>
+      </c>
+      <c r="AF104">
+        <v>1.05</v>
+      </c>
+      <c r="AG104">
+        <v>6.8</v>
+      </c>
+      <c r="AH104">
+        <v>1.36</v>
+      </c>
+      <c r="AI104">
+        <v>2.78</v>
+      </c>
+      <c r="AJ104">
+        <v>2.06</v>
+      </c>
+      <c r="AK104">
+        <v>1.6</v>
+      </c>
+      <c r="AL104">
+        <v>1.87</v>
+      </c>
+      <c r="AM104">
+        <v>1.79</v>
+      </c>
+      <c r="AN104">
+        <v>1.32</v>
+      </c>
+      <c r="AO104">
+        <v>1.3</v>
+      </c>
+      <c r="AP104">
+        <v>1.56</v>
+      </c>
+      <c r="AQ104">
+        <v>1.67</v>
+      </c>
+      <c r="AR104">
+        <v>1</v>
+      </c>
+      <c r="AS104">
+        <v>1.57</v>
+      </c>
+      <c r="AT104">
+        <v>1</v>
+      </c>
+      <c r="AU104">
+        <v>1.82</v>
+      </c>
+      <c r="AV104">
+        <v>0.95</v>
+      </c>
+      <c r="AW104">
+        <v>2.77</v>
+      </c>
+      <c r="AX104">
+        <v>0</v>
+      </c>
+      <c r="AY104">
+        <v>0</v>
+      </c>
+      <c r="AZ104">
+        <v>0</v>
+      </c>
+      <c r="BA104">
+        <v>0</v>
+      </c>
+      <c r="BB104">
+        <v>0</v>
+      </c>
+      <c r="BC104">
+        <v>0</v>
+      </c>
+      <c r="BD104">
+        <v>0</v>
+      </c>
+      <c r="BE104">
+        <v>0</v>
+      </c>
+      <c r="BF104">
+        <v>3</v>
+      </c>
+      <c r="BG104">
+        <v>2</v>
+      </c>
+      <c r="BH104">
+        <v>9</v>
+      </c>
+      <c r="BI104">
+        <v>4</v>
+      </c>
+      <c r="BJ104">
+        <v>12</v>
+      </c>
+      <c r="BK104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>5409868</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45123.70833333334</v>
+      </c>
+      <c r="F105">
+        <v>15</v>
+      </c>
+      <c r="G105" t="s">
+        <v>77</v>
+      </c>
+      <c r="H105" t="s">
+        <v>73</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>128</v>
+      </c>
+      <c r="P105" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q105">
+        <v>2</v>
+      </c>
+      <c r="R105">
+        <v>6</v>
+      </c>
+      <c r="S105">
+        <v>8</v>
+      </c>
+      <c r="T105">
+        <v>3</v>
+      </c>
+      <c r="U105">
+        <v>2</v>
+      </c>
+      <c r="V105">
+        <v>3.6</v>
+      </c>
+      <c r="W105">
+        <v>1.46</v>
+      </c>
+      <c r="X105">
+        <v>2.53</v>
+      </c>
+      <c r="Y105">
+        <v>3.15</v>
+      </c>
+      <c r="Z105">
+        <v>1.31</v>
+      </c>
+      <c r="AA105">
+        <v>8.1</v>
+      </c>
+      <c r="AB105">
+        <v>1.04</v>
+      </c>
+      <c r="AC105">
+        <v>2.25</v>
+      </c>
+      <c r="AD105">
+        <v>3.2</v>
+      </c>
+      <c r="AE105">
+        <v>3</v>
+      </c>
+      <c r="AF105">
+        <v>1.03</v>
+      </c>
+      <c r="AG105">
+        <v>9</v>
+      </c>
+      <c r="AH105">
+        <v>1.36</v>
+      </c>
+      <c r="AI105">
+        <v>2.78</v>
+      </c>
+      <c r="AJ105">
+        <v>2.06</v>
+      </c>
+      <c r="AK105">
+        <v>1.6</v>
+      </c>
+      <c r="AL105">
+        <v>1.86</v>
+      </c>
+      <c r="AM105">
+        <v>1.8</v>
+      </c>
+      <c r="AN105">
+        <v>1.32</v>
+      </c>
+      <c r="AO105">
+        <v>1.3</v>
+      </c>
+      <c r="AP105">
+        <v>1.57</v>
+      </c>
+      <c r="AQ105">
+        <v>1.43</v>
+      </c>
+      <c r="AR105">
+        <v>1.14</v>
+      </c>
+      <c r="AS105">
+        <v>1.25</v>
+      </c>
+      <c r="AT105">
+        <v>1.38</v>
+      </c>
+      <c r="AU105">
+        <v>1.49</v>
+      </c>
+      <c r="AV105">
+        <v>1.41</v>
+      </c>
+      <c r="AW105">
+        <v>2.9</v>
+      </c>
+      <c r="AX105">
+        <v>0</v>
+      </c>
+      <c r="AY105">
+        <v>0</v>
+      </c>
+      <c r="AZ105">
+        <v>0</v>
+      </c>
+      <c r="BA105">
+        <v>0</v>
+      </c>
+      <c r="BB105">
+        <v>0</v>
+      </c>
+      <c r="BC105">
+        <v>0</v>
+      </c>
+      <c r="BD105">
+        <v>0</v>
+      </c>
+      <c r="BE105">
+        <v>0</v>
+      </c>
+      <c r="BF105">
+        <v>4</v>
+      </c>
+      <c r="BG105">
+        <v>7</v>
+      </c>
+      <c r="BH105">
+        <v>0</v>
+      </c>
+      <c r="BI105">
+        <v>10</v>
+      </c>
+      <c r="BJ105">
+        <v>4</v>
+      </c>
+      <c r="BK105">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>5409869</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45124.875</v>
+      </c>
+      <c r="F106">
+        <v>15</v>
+      </c>
+      <c r="G106" t="s">
+        <v>70</v>
+      </c>
+      <c r="H106" t="s">
+        <v>76</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106" t="s">
+        <v>155</v>
+      </c>
+      <c r="P106" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q106">
+        <v>7</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>7</v>
+      </c>
+      <c r="T106">
+        <v>2.38</v>
+      </c>
+      <c r="U106">
+        <v>2.1</v>
+      </c>
+      <c r="V106">
+        <v>4.75</v>
+      </c>
+      <c r="W106">
+        <v>1.41</v>
+      </c>
+      <c r="X106">
+        <v>2.7</v>
+      </c>
+      <c r="Y106">
+        <v>2.9</v>
+      </c>
+      <c r="Z106">
+        <v>1.36</v>
+      </c>
+      <c r="AA106">
+        <v>7.5</v>
+      </c>
+      <c r="AB106">
+        <v>1.06</v>
+      </c>
+      <c r="AC106">
+        <v>1.75</v>
+      </c>
+      <c r="AD106">
+        <v>3.4</v>
+      </c>
+      <c r="AE106">
+        <v>4.33</v>
+      </c>
+      <c r="AF106">
+        <v>1.01</v>
+      </c>
+      <c r="AG106">
+        <v>9</v>
+      </c>
+      <c r="AH106">
+        <v>1.28</v>
+      </c>
+      <c r="AI106">
+        <v>3</v>
+      </c>
+      <c r="AJ106">
+        <v>2.1</v>
+      </c>
+      <c r="AK106">
+        <v>1.7</v>
+      </c>
+      <c r="AL106">
+        <v>1.9</v>
+      </c>
+      <c r="AM106">
+        <v>1.76</v>
+      </c>
+      <c r="AN106">
+        <v>1.16</v>
+      </c>
+      <c r="AO106">
+        <v>1.21</v>
+      </c>
+      <c r="AP106">
+        <v>1.9</v>
+      </c>
+      <c r="AQ106">
+        <v>2.71</v>
+      </c>
+      <c r="AR106">
+        <v>0.86</v>
+      </c>
+      <c r="AS106">
+        <v>2.75</v>
+      </c>
+      <c r="AT106">
+        <v>0.75</v>
+      </c>
+      <c r="AU106">
+        <v>1.4</v>
+      </c>
+      <c r="AV106">
+        <v>1.1</v>
+      </c>
+      <c r="AW106">
+        <v>2.5</v>
+      </c>
+      <c r="AX106">
+        <v>0</v>
+      </c>
+      <c r="AY106">
+        <v>0</v>
+      </c>
+      <c r="AZ106">
+        <v>0</v>
+      </c>
+      <c r="BA106">
+        <v>0</v>
+      </c>
+      <c r="BB106">
+        <v>0</v>
+      </c>
+      <c r="BC106">
+        <v>0</v>
+      </c>
+      <c r="BD106">
+        <v>0</v>
+      </c>
+      <c r="BE106">
+        <v>0</v>
+      </c>
+      <c r="BF106">
+        <v>6</v>
+      </c>
+      <c r="BG106">
+        <v>0</v>
+      </c>
+      <c r="BH106">
+        <v>9</v>
+      </c>
+      <c r="BI106">
+        <v>8</v>
+      </c>
+      <c r="BJ106">
+        <v>15</v>
+      </c>
+      <c r="BK106">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,15 @@
     <t>['90']</t>
   </si>
   <si>
+    <t>['45+3', '50']</t>
+  </si>
+  <si>
+    <t>['38', '54']</t>
+  </si>
+  <si>
+    <t>['12', '79', '88']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -635,6 +644,12 @@
   </si>
   <si>
     <t>['9001', '9005']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['45']</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK106"/>
+  <dimension ref="A1:BK113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1622,7 +1637,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1813,7 +1828,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2386,7 +2401,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2473,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT8">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2577,7 +2592,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>10</v>
@@ -2664,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2768,7 +2783,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2855,10 +2870,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT10">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2959,7 +2974,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3046,10 +3061,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3150,7 +3165,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3237,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT12">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3341,7 +3356,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3428,10 +3443,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT13">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3914,7 +3929,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4678,7 +4693,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4956,10 +4971,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT21">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU21">
         <v>1.28</v>
@@ -5060,7 +5075,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5251,7 +5266,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5338,10 +5353,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT23">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU23">
         <v>1.43</v>
@@ -5442,7 +5457,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>13</v>
@@ -5529,10 +5544,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU24">
         <v>2.23</v>
@@ -5720,10 +5735,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5911,10 +5926,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT26">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU26">
         <v>1.53</v>
@@ -6015,7 +6030,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6102,10 +6117,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT27">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>2.07</v>
@@ -6484,7 +6499,7 @@
         <v>0.5</v>
       </c>
       <c r="AS29">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT29">
         <v>1.38</v>
@@ -6678,7 +6693,7 @@
         <v>2.29</v>
       </c>
       <c r="AT30">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU30">
         <v>1.7</v>
@@ -7060,7 +7075,7 @@
         <v>1.38</v>
       </c>
       <c r="AT32">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU32">
         <v>1.3</v>
@@ -7161,7 +7176,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7248,7 +7263,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT33">
         <v>0.14</v>
@@ -7352,7 +7367,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7630,10 +7645,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT35">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU35">
         <v>1.39</v>
@@ -7734,7 +7749,7 @@
         <v>96</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7821,7 +7836,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT36">
         <v>2</v>
@@ -7925,7 +7940,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8012,10 +8027,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU37">
         <v>1.66</v>
@@ -8206,7 +8221,7 @@
         <v>1</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU38">
         <v>0.98</v>
@@ -8394,7 +8409,7 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8498,7 +8513,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8585,10 +8600,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT40">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU40">
         <v>1.66</v>
@@ -8776,10 +8791,10 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT41">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU41">
         <v>1.09</v>
@@ -8970,7 +8985,7 @@
         <v>1.25</v>
       </c>
       <c r="AT42">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU42">
         <v>1.47</v>
@@ -9071,7 +9086,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9262,7 +9277,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9349,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT44">
         <v>0.63</v>
@@ -9453,7 +9468,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9540,7 +9555,7 @@
         <v>0.33</v>
       </c>
       <c r="AS45">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT45">
         <v>0.75</v>
@@ -9734,7 +9749,7 @@
         <v>2.38</v>
       </c>
       <c r="AT46">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU46">
         <v>1.54</v>
@@ -9835,7 +9850,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9922,10 +9937,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU47">
         <v>2.24</v>
@@ -10026,7 +10041,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -10113,10 +10128,10 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT48">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU48">
         <v>1.83</v>
@@ -10307,7 +10322,7 @@
         <v>1.57</v>
       </c>
       <c r="AT49">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU49">
         <v>1.97</v>
@@ -10408,7 +10423,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q50">
         <v>9</v>
@@ -10689,7 +10704,7 @@
         <v>1.38</v>
       </c>
       <c r="AT51">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU51">
         <v>1.45</v>
@@ -10790,7 +10805,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -10981,7 +10996,7 @@
         <v>82</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11068,7 +11083,7 @@
         <v>0.33</v>
       </c>
       <c r="AS53">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT53">
         <v>1.38</v>
@@ -11450,7 +11465,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -11554,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -11644,7 +11659,7 @@
         <v>1.25</v>
       </c>
       <c r="AT56">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU56">
         <v>1.34</v>
@@ -11835,7 +11850,7 @@
         <v>1.57</v>
       </c>
       <c r="AT57">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU57">
         <v>1.92</v>
@@ -12026,7 +12041,7 @@
         <v>2.75</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU58">
         <v>1.02</v>
@@ -12214,10 +12229,10 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT59">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU59">
         <v>2</v>
@@ -12405,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT60">
         <v>0.63</v>
@@ -12596,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT61">
         <v>0.75</v>
@@ -12891,7 +12906,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -12981,7 +12996,7 @@
         <v>2.29</v>
       </c>
       <c r="AT63">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU63">
         <v>1.55</v>
@@ -13169,7 +13184,7 @@
         <v>0.25</v>
       </c>
       <c r="AS64">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT64">
         <v>0.14</v>
@@ -13273,7 +13288,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13363,7 +13378,7 @@
         <v>1</v>
       </c>
       <c r="AT65">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU65">
         <v>1.07</v>
@@ -13655,7 +13670,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>16</v>
@@ -13742,7 +13757,7 @@
         <v>1.2</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT67">
         <v>1</v>
@@ -13846,7 +13861,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13936,7 +13951,7 @@
         <v>1.38</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU68">
         <v>1.48</v>
@@ -14037,7 +14052,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q69">
         <v>9</v>
@@ -14124,7 +14139,7 @@
         <v>2.25</v>
       </c>
       <c r="AS69">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT69">
         <v>2</v>
@@ -14318,7 +14333,7 @@
         <v>2.75</v>
       </c>
       <c r="AT70">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU70">
         <v>1.29</v>
@@ -14419,7 +14434,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14506,7 +14521,7 @@
         <v>0.8</v>
       </c>
       <c r="AS71">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT71">
         <v>1.38</v>
@@ -14610,7 +14625,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -14700,7 +14715,7 @@
         <v>1</v>
       </c>
       <c r="AT72">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU72">
         <v>1.14</v>
@@ -14888,10 +14903,10 @@
         <v>1.6</v>
       </c>
       <c r="AS73">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT73">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU73">
         <v>1.7</v>
@@ -15079,7 +15094,7 @@
         <v>0.2</v>
       </c>
       <c r="AS74">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT74">
         <v>0.75</v>
@@ -15183,7 +15198,7 @@
         <v>139</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15270,7 +15285,7 @@
         <v>0.25</v>
       </c>
       <c r="AS75">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT75">
         <v>0.63</v>
@@ -15374,7 +15389,7 @@
         <v>128</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15464,7 +15479,7 @@
         <v>2.38</v>
       </c>
       <c r="AT76">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU76">
         <v>1.64</v>
@@ -15652,7 +15667,7 @@
         <v>0.2</v>
       </c>
       <c r="AS77">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT77">
         <v>0.14</v>
@@ -15846,7 +15861,7 @@
         <v>2.29</v>
       </c>
       <c r="AT78">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU78">
         <v>1.68</v>
@@ -15947,7 +15962,7 @@
         <v>82</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16034,10 +16049,10 @@
         <v>0.2</v>
       </c>
       <c r="AS79">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT79">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU79">
         <v>1.72</v>
@@ -16228,7 +16243,7 @@
         <v>1.57</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU80">
         <v>1.86</v>
@@ -16329,7 +16344,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q81">
         <v>11</v>
@@ -16416,7 +16431,7 @@
         <v>0.33</v>
       </c>
       <c r="AS81">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT81">
         <v>0.75</v>
@@ -16520,7 +16535,7 @@
         <v>82</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16610,7 +16625,7 @@
         <v>1.25</v>
       </c>
       <c r="AT82">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU82">
         <v>1.49</v>
@@ -16798,7 +16813,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT83">
         <v>2</v>
@@ -16902,7 +16917,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -16992,7 +17007,7 @@
         <v>2.75</v>
       </c>
       <c r="AT84">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU84">
         <v>1.35</v>
@@ -17093,7 +17108,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q85">
         <v>12</v>
@@ -17180,7 +17195,7 @@
         <v>0.83</v>
       </c>
       <c r="AS85">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT85">
         <v>0.75</v>
@@ -17562,10 +17577,10 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT87">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU87">
         <v>1.67</v>
@@ -17857,7 +17872,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -17947,7 +17962,7 @@
         <v>1.38</v>
       </c>
       <c r="AT89">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU89">
         <v>1.44</v>
@@ -18048,7 +18063,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18135,7 +18150,7 @@
         <v>0.83</v>
       </c>
       <c r="AS90">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT90">
         <v>1.38</v>
@@ -18239,7 +18254,7 @@
         <v>82</v>
       </c>
       <c r="P91" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18517,10 +18532,10 @@
         <v>1.2</v>
       </c>
       <c r="AS92">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT92">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU92">
         <v>1.62</v>
@@ -18708,10 +18723,10 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU93">
         <v>1.73</v>
@@ -18899,10 +18914,10 @@
         <v>1</v>
       </c>
       <c r="AS94">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT94">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU94">
         <v>1.59</v>
@@ -19003,7 +19018,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19090,10 +19105,10 @@
         <v>1.17</v>
       </c>
       <c r="AS95">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT95">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU95">
         <v>1.33</v>
@@ -19281,10 +19296,10 @@
         <v>1.29</v>
       </c>
       <c r="AS96">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT96">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU96">
         <v>1.78</v>
@@ -19472,10 +19487,10 @@
         <v>1.33</v>
       </c>
       <c r="AS97">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT97">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU97">
         <v>1.9</v>
@@ -19576,7 +19591,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19663,10 +19678,10 @@
         <v>1.83</v>
       </c>
       <c r="AS98">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT98">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU98">
         <v>1.6</v>
@@ -19767,7 +19782,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -19854,10 +19869,10 @@
         <v>0.67</v>
       </c>
       <c r="AS99">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT99">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU99">
         <v>1.58</v>
@@ -19958,7 +19973,7 @@
         <v>143</v>
       </c>
       <c r="P100" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20149,7 +20164,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20722,7 +20737,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -20913,7 +20928,7 @@
         <v>128</v>
       </c>
       <c r="P105" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21246,6 +21261,1343 @@
       </c>
       <c r="BK106">
         <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>5409879</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45129.66666666666</v>
+      </c>
+      <c r="F107">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H107" t="s">
+        <v>77</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>82</v>
+      </c>
+      <c r="P107" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q107">
+        <v>2</v>
+      </c>
+      <c r="R107">
+        <v>7</v>
+      </c>
+      <c r="S107">
+        <v>9</v>
+      </c>
+      <c r="T107">
+        <v>3.4</v>
+      </c>
+      <c r="U107">
+        <v>1.83</v>
+      </c>
+      <c r="V107">
+        <v>3.6</v>
+      </c>
+      <c r="W107">
+        <v>1.53</v>
+      </c>
+      <c r="X107">
+        <v>2.34</v>
+      </c>
+      <c r="Y107">
+        <v>3.48</v>
+      </c>
+      <c r="Z107">
+        <v>1.26</v>
+      </c>
+      <c r="AA107">
+        <v>10</v>
+      </c>
+      <c r="AB107">
+        <v>1.02</v>
+      </c>
+      <c r="AC107">
+        <v>2.5</v>
+      </c>
+      <c r="AD107">
+        <v>3</v>
+      </c>
+      <c r="AE107">
+        <v>2.63</v>
+      </c>
+      <c r="AF107">
+        <v>1.08</v>
+      </c>
+      <c r="AG107">
+        <v>6.5</v>
+      </c>
+      <c r="AH107">
+        <v>1.53</v>
+      </c>
+      <c r="AI107">
+        <v>2.38</v>
+      </c>
+      <c r="AJ107">
+        <v>2.4</v>
+      </c>
+      <c r="AK107">
+        <v>1.44</v>
+      </c>
+      <c r="AL107">
+        <v>2.04</v>
+      </c>
+      <c r="AM107">
+        <v>1.74</v>
+      </c>
+      <c r="AN107">
+        <v>1.39</v>
+      </c>
+      <c r="AO107">
+        <v>1.33</v>
+      </c>
+      <c r="AP107">
+        <v>1.44</v>
+      </c>
+      <c r="AQ107">
+        <v>1.29</v>
+      </c>
+      <c r="AR107">
+        <v>1.43</v>
+      </c>
+      <c r="AS107">
+        <v>1.13</v>
+      </c>
+      <c r="AT107">
+        <v>1.63</v>
+      </c>
+      <c r="AU107">
+        <v>1.66</v>
+      </c>
+      <c r="AV107">
+        <v>1.24</v>
+      </c>
+      <c r="AW107">
+        <v>2.9</v>
+      </c>
+      <c r="AX107">
+        <v>0</v>
+      </c>
+      <c r="AY107">
+        <v>0</v>
+      </c>
+      <c r="AZ107">
+        <v>0</v>
+      </c>
+      <c r="BA107">
+        <v>0</v>
+      </c>
+      <c r="BB107">
+        <v>0</v>
+      </c>
+      <c r="BC107">
+        <v>1.95</v>
+      </c>
+      <c r="BD107">
+        <v>0</v>
+      </c>
+      <c r="BE107">
+        <v>0</v>
+      </c>
+      <c r="BF107">
+        <v>2</v>
+      </c>
+      <c r="BG107">
+        <v>4</v>
+      </c>
+      <c r="BH107">
+        <v>5</v>
+      </c>
+      <c r="BI107">
+        <v>6</v>
+      </c>
+      <c r="BJ107">
+        <v>7</v>
+      </c>
+      <c r="BK107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>5409880</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45129.66666666666</v>
+      </c>
+      <c r="F108">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>73</v>
+      </c>
+      <c r="H108" t="s">
+        <v>68</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108" t="s">
+        <v>82</v>
+      </c>
+      <c r="P108" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q108">
+        <v>8</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
+        <v>10</v>
+      </c>
+      <c r="T108">
+        <v>2.5</v>
+      </c>
+      <c r="U108">
+        <v>2</v>
+      </c>
+      <c r="V108">
+        <v>4.5</v>
+      </c>
+      <c r="W108">
+        <v>1.46</v>
+      </c>
+      <c r="X108">
+        <v>2.53</v>
+      </c>
+      <c r="Y108">
+        <v>3.15</v>
+      </c>
+      <c r="Z108">
+        <v>1.31</v>
+      </c>
+      <c r="AA108">
+        <v>8.1</v>
+      </c>
+      <c r="AB108">
+        <v>1.04</v>
+      </c>
+      <c r="AC108">
+        <v>1.84</v>
+      </c>
+      <c r="AD108">
+        <v>3.2</v>
+      </c>
+      <c r="AE108">
+        <v>3.5</v>
+      </c>
+      <c r="AF108">
+        <v>1.05</v>
+      </c>
+      <c r="AG108">
+        <v>8</v>
+      </c>
+      <c r="AH108">
+        <v>1.36</v>
+      </c>
+      <c r="AI108">
+        <v>2.79</v>
+      </c>
+      <c r="AJ108">
+        <v>2.2</v>
+      </c>
+      <c r="AK108">
+        <v>1.6</v>
+      </c>
+      <c r="AL108">
+        <v>1.98</v>
+      </c>
+      <c r="AM108">
+        <v>1.79</v>
+      </c>
+      <c r="AN108">
+        <v>1.21</v>
+      </c>
+      <c r="AO108">
+        <v>1.28</v>
+      </c>
+      <c r="AP108">
+        <v>1.81</v>
+      </c>
+      <c r="AQ108">
+        <v>2</v>
+      </c>
+      <c r="AR108">
+        <v>1.14</v>
+      </c>
+      <c r="AS108">
+        <v>1.75</v>
+      </c>
+      <c r="AT108">
+        <v>1.38</v>
+      </c>
+      <c r="AU108">
+        <v>1.82</v>
+      </c>
+      <c r="AV108">
+        <v>1.52</v>
+      </c>
+      <c r="AW108">
+        <v>3.34</v>
+      </c>
+      <c r="AX108">
+        <v>0</v>
+      </c>
+      <c r="AY108">
+        <v>0</v>
+      </c>
+      <c r="AZ108">
+        <v>0</v>
+      </c>
+      <c r="BA108">
+        <v>0</v>
+      </c>
+      <c r="BB108">
+        <v>0</v>
+      </c>
+      <c r="BC108">
+        <v>0</v>
+      </c>
+      <c r="BD108">
+        <v>0</v>
+      </c>
+      <c r="BE108">
+        <v>0</v>
+      </c>
+      <c r="BF108">
+        <v>5</v>
+      </c>
+      <c r="BG108">
+        <v>3</v>
+      </c>
+      <c r="BH108">
+        <v>9</v>
+      </c>
+      <c r="BI108">
+        <v>3</v>
+      </c>
+      <c r="BJ108">
+        <v>14</v>
+      </c>
+      <c r="BK108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>5409878</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45129.6875</v>
+      </c>
+      <c r="F109">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>71</v>
+      </c>
+      <c r="H109" t="s">
+        <v>67</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109" t="s">
+        <v>157</v>
+      </c>
+      <c r="P109" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q109">
+        <v>4</v>
+      </c>
+      <c r="R109">
+        <v>5</v>
+      </c>
+      <c r="S109">
+        <v>9</v>
+      </c>
+      <c r="T109">
+        <v>2.6</v>
+      </c>
+      <c r="U109">
+        <v>2</v>
+      </c>
+      <c r="V109">
+        <v>4.75</v>
+      </c>
+      <c r="W109">
+        <v>1.53</v>
+      </c>
+      <c r="X109">
+        <v>2.34</v>
+      </c>
+      <c r="Y109">
+        <v>3.48</v>
+      </c>
+      <c r="Z109">
+        <v>1.26</v>
+      </c>
+      <c r="AA109">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB109">
+        <v>1.03</v>
+      </c>
+      <c r="AC109">
+        <v>1.84</v>
+      </c>
+      <c r="AD109">
+        <v>3.2</v>
+      </c>
+      <c r="AE109">
+        <v>3.5</v>
+      </c>
+      <c r="AF109">
+        <v>1.07</v>
+      </c>
+      <c r="AG109">
+        <v>6.45</v>
+      </c>
+      <c r="AH109">
+        <v>1.51</v>
+      </c>
+      <c r="AI109">
+        <v>2.52</v>
+      </c>
+      <c r="AJ109">
+        <v>2.3</v>
+      </c>
+      <c r="AK109">
+        <v>1.55</v>
+      </c>
+      <c r="AL109">
+        <v>2.09</v>
+      </c>
+      <c r="AM109">
+        <v>1.71</v>
+      </c>
+      <c r="AN109">
+        <v>1.18</v>
+      </c>
+      <c r="AO109">
+        <v>1.3</v>
+      </c>
+      <c r="AP109">
+        <v>1.82</v>
+      </c>
+      <c r="AQ109">
+        <v>1.25</v>
+      </c>
+      <c r="AR109">
+        <v>0.57</v>
+      </c>
+      <c r="AS109">
+        <v>1.44</v>
+      </c>
+      <c r="AT109">
+        <v>0.5</v>
+      </c>
+      <c r="AU109">
+        <v>1.6</v>
+      </c>
+      <c r="AV109">
+        <v>1.23</v>
+      </c>
+      <c r="AW109">
+        <v>2.83</v>
+      </c>
+      <c r="AX109">
+        <v>0</v>
+      </c>
+      <c r="AY109">
+        <v>0</v>
+      </c>
+      <c r="AZ109">
+        <v>0</v>
+      </c>
+      <c r="BA109">
+        <v>0</v>
+      </c>
+      <c r="BB109">
+        <v>0</v>
+      </c>
+      <c r="BC109">
+        <v>0</v>
+      </c>
+      <c r="BD109">
+        <v>0</v>
+      </c>
+      <c r="BE109">
+        <v>0</v>
+      </c>
+      <c r="BF109">
+        <v>5</v>
+      </c>
+      <c r="BG109">
+        <v>6</v>
+      </c>
+      <c r="BH109">
+        <v>6</v>
+      </c>
+      <c r="BI109">
+        <v>8</v>
+      </c>
+      <c r="BJ109">
+        <v>11</v>
+      </c>
+      <c r="BK109">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>5409874</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45129.6875</v>
+      </c>
+      <c r="F110">
+        <v>16</v>
+      </c>
+      <c r="G110" t="s">
+        <v>75</v>
+      </c>
+      <c r="H110" t="s">
+        <v>70</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110" t="s">
+        <v>82</v>
+      </c>
+      <c r="P110" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q110">
+        <v>3</v>
+      </c>
+      <c r="R110">
+        <v>3</v>
+      </c>
+      <c r="S110">
+        <v>6</v>
+      </c>
+      <c r="T110">
+        <v>3.75</v>
+      </c>
+      <c r="U110">
+        <v>1.91</v>
+      </c>
+      <c r="V110">
+        <v>3.1</v>
+      </c>
+      <c r="W110">
+        <v>1.5</v>
+      </c>
+      <c r="X110">
+        <v>2.42</v>
+      </c>
+      <c r="Y110">
+        <v>3.34</v>
+      </c>
+      <c r="Z110">
+        <v>1.28</v>
+      </c>
+      <c r="AA110">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB110">
+        <v>1.03</v>
+      </c>
+      <c r="AC110">
+        <v>2.68</v>
+      </c>
+      <c r="AD110">
+        <v>2.98</v>
+      </c>
+      <c r="AE110">
+        <v>2.32</v>
+      </c>
+      <c r="AF110">
+        <v>1.05</v>
+      </c>
+      <c r="AG110">
+        <v>6.95</v>
+      </c>
+      <c r="AH110">
+        <v>1.45</v>
+      </c>
+      <c r="AI110">
+        <v>2.71</v>
+      </c>
+      <c r="AJ110">
+        <v>2.38</v>
+      </c>
+      <c r="AK110">
+        <v>1.53</v>
+      </c>
+      <c r="AL110">
+        <v>1.97</v>
+      </c>
+      <c r="AM110">
+        <v>1.79</v>
+      </c>
+      <c r="AN110">
+        <v>1.47</v>
+      </c>
+      <c r="AO110">
+        <v>1.32</v>
+      </c>
+      <c r="AP110">
+        <v>1.38</v>
+      </c>
+      <c r="AQ110">
+        <v>1.57</v>
+      </c>
+      <c r="AR110">
+        <v>2</v>
+      </c>
+      <c r="AS110">
+        <v>1.5</v>
+      </c>
+      <c r="AT110">
+        <v>1.88</v>
+      </c>
+      <c r="AU110">
+        <v>1.79</v>
+      </c>
+      <c r="AV110">
+        <v>1.4</v>
+      </c>
+      <c r="AW110">
+        <v>3.19</v>
+      </c>
+      <c r="AX110">
+        <v>0</v>
+      </c>
+      <c r="AY110">
+        <v>0</v>
+      </c>
+      <c r="AZ110">
+        <v>0</v>
+      </c>
+      <c r="BA110">
+        <v>0</v>
+      </c>
+      <c r="BB110">
+        <v>0</v>
+      </c>
+      <c r="BC110">
+        <v>0</v>
+      </c>
+      <c r="BD110">
+        <v>0</v>
+      </c>
+      <c r="BE110">
+        <v>0</v>
+      </c>
+      <c r="BF110">
+        <v>3</v>
+      </c>
+      <c r="BG110">
+        <v>5</v>
+      </c>
+      <c r="BH110">
+        <v>2</v>
+      </c>
+      <c r="BI110">
+        <v>10</v>
+      </c>
+      <c r="BJ110">
+        <v>5</v>
+      </c>
+      <c r="BK110">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>5409876</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45130.54166666666</v>
+      </c>
+      <c r="F111">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>72</v>
+      </c>
+      <c r="H111" t="s">
+        <v>65</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>158</v>
+      </c>
+      <c r="P111" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q111">
+        <v>17</v>
+      </c>
+      <c r="R111">
+        <v>7</v>
+      </c>
+      <c r="S111">
+        <v>24</v>
+      </c>
+      <c r="T111">
+        <v>3.2</v>
+      </c>
+      <c r="U111">
+        <v>2.05</v>
+      </c>
+      <c r="V111">
+        <v>3.2</v>
+      </c>
+      <c r="W111">
+        <v>1.41</v>
+      </c>
+      <c r="X111">
+        <v>2.7</v>
+      </c>
+      <c r="Y111">
+        <v>2.9</v>
+      </c>
+      <c r="Z111">
+        <v>1.36</v>
+      </c>
+      <c r="AA111">
+        <v>7.6</v>
+      </c>
+      <c r="AB111">
+        <v>1.05</v>
+      </c>
+      <c r="AC111">
+        <v>2.6</v>
+      </c>
+      <c r="AD111">
+        <v>2.9</v>
+      </c>
+      <c r="AE111">
+        <v>2.6</v>
+      </c>
+      <c r="AF111">
+        <v>1.04</v>
+      </c>
+      <c r="AG111">
+        <v>8.5</v>
+      </c>
+      <c r="AH111">
+        <v>1.35</v>
+      </c>
+      <c r="AI111">
+        <v>2.9</v>
+      </c>
+      <c r="AJ111">
+        <v>2.1</v>
+      </c>
+      <c r="AK111">
+        <v>1.7</v>
+      </c>
+      <c r="AL111">
+        <v>1.81</v>
+      </c>
+      <c r="AM111">
+        <v>1.95</v>
+      </c>
+      <c r="AN111">
+        <v>1.58</v>
+      </c>
+      <c r="AO111">
+        <v>1.29</v>
+      </c>
+      <c r="AP111">
+        <v>1.37</v>
+      </c>
+      <c r="AQ111">
+        <v>0.88</v>
+      </c>
+      <c r="AR111">
+        <v>1</v>
+      </c>
+      <c r="AS111">
+        <v>1.11</v>
+      </c>
+      <c r="AT111">
+        <v>0.88</v>
+      </c>
+      <c r="AU111">
+        <v>1.61</v>
+      </c>
+      <c r="AV111">
+        <v>1.4</v>
+      </c>
+      <c r="AW111">
+        <v>3.01</v>
+      </c>
+      <c r="AX111">
+        <v>0</v>
+      </c>
+      <c r="AY111">
+        <v>0</v>
+      </c>
+      <c r="AZ111">
+        <v>0</v>
+      </c>
+      <c r="BA111">
+        <v>1.26</v>
+      </c>
+      <c r="BB111">
+        <v>1.49</v>
+      </c>
+      <c r="BC111">
+        <v>2.38</v>
+      </c>
+      <c r="BD111">
+        <v>2.45</v>
+      </c>
+      <c r="BE111">
+        <v>3.35</v>
+      </c>
+      <c r="BF111">
+        <v>9</v>
+      </c>
+      <c r="BG111">
+        <v>5</v>
+      </c>
+      <c r="BH111">
+        <v>24</v>
+      </c>
+      <c r="BI111">
+        <v>12</v>
+      </c>
+      <c r="BJ111">
+        <v>33</v>
+      </c>
+      <c r="BK111">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>5409877</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45130.66666666666</v>
+      </c>
+      <c r="F112">
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
+        <v>76</v>
+      </c>
+      <c r="H112" t="s">
+        <v>66</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>159</v>
+      </c>
+      <c r="P112" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q112">
+        <v>6</v>
+      </c>
+      <c r="R112">
+        <v>4</v>
+      </c>
+      <c r="S112">
+        <v>10</v>
+      </c>
+      <c r="T112">
+        <v>3.1</v>
+      </c>
+      <c r="U112">
+        <v>2</v>
+      </c>
+      <c r="V112">
+        <v>3.5</v>
+      </c>
+      <c r="W112">
+        <v>1.48</v>
+      </c>
+      <c r="X112">
+        <v>2.47</v>
+      </c>
+      <c r="Y112">
+        <v>3.22</v>
+      </c>
+      <c r="Z112">
+        <v>1.3</v>
+      </c>
+      <c r="AA112">
+        <v>7.7</v>
+      </c>
+      <c r="AB112">
+        <v>1.05</v>
+      </c>
+      <c r="AC112">
+        <v>2.4</v>
+      </c>
+      <c r="AD112">
+        <v>2.9</v>
+      </c>
+      <c r="AE112">
+        <v>2.75</v>
+      </c>
+      <c r="AF112">
+        <v>1.08</v>
+      </c>
+      <c r="AG112">
+        <v>7</v>
+      </c>
+      <c r="AH112">
+        <v>1.39</v>
+      </c>
+      <c r="AI112">
+        <v>2.67</v>
+      </c>
+      <c r="AJ112">
+        <v>2.2</v>
+      </c>
+      <c r="AK112">
+        <v>1.57</v>
+      </c>
+      <c r="AL112">
+        <v>1.92</v>
+      </c>
+      <c r="AM112">
+        <v>1.75</v>
+      </c>
+      <c r="AN112">
+        <v>1.38</v>
+      </c>
+      <c r="AO112">
+        <v>1.31</v>
+      </c>
+      <c r="AP112">
+        <v>1.48</v>
+      </c>
+      <c r="AQ112">
+        <v>1.71</v>
+      </c>
+      <c r="AR112">
+        <v>1</v>
+      </c>
+      <c r="AS112">
+        <v>1.88</v>
+      </c>
+      <c r="AT112">
+        <v>0.89</v>
+      </c>
+      <c r="AU112">
+        <v>1.58</v>
+      </c>
+      <c r="AV112">
+        <v>1.65</v>
+      </c>
+      <c r="AW112">
+        <v>3.23</v>
+      </c>
+      <c r="AX112">
+        <v>0</v>
+      </c>
+      <c r="AY112">
+        <v>0</v>
+      </c>
+      <c r="AZ112">
+        <v>0</v>
+      </c>
+      <c r="BA112">
+        <v>0</v>
+      </c>
+      <c r="BB112">
+        <v>0</v>
+      </c>
+      <c r="BC112">
+        <v>0</v>
+      </c>
+      <c r="BD112">
+        <v>0</v>
+      </c>
+      <c r="BE112">
+        <v>0</v>
+      </c>
+      <c r="BF112">
+        <v>8</v>
+      </c>
+      <c r="BG112">
+        <v>4</v>
+      </c>
+      <c r="BH112">
+        <v>6</v>
+      </c>
+      <c r="BI112">
+        <v>3</v>
+      </c>
+      <c r="BJ112">
+        <v>14</v>
+      </c>
+      <c r="BK112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>5409875</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45130.66666666666</v>
+      </c>
+      <c r="F113">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>78</v>
+      </c>
+      <c r="H113" t="s">
+        <v>69</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113" t="s">
+        <v>160</v>
+      </c>
+      <c r="P113" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q113">
+        <v>4</v>
+      </c>
+      <c r="R113">
+        <v>6</v>
+      </c>
+      <c r="S113">
+        <v>10</v>
+      </c>
+      <c r="T113">
+        <v>3.1</v>
+      </c>
+      <c r="U113">
+        <v>2</v>
+      </c>
+      <c r="V113">
+        <v>3.5</v>
+      </c>
+      <c r="W113">
+        <v>1.44</v>
+      </c>
+      <c r="X113">
+        <v>2.62</v>
+      </c>
+      <c r="Y113">
+        <v>3.2</v>
+      </c>
+      <c r="Z113">
+        <v>1.3</v>
+      </c>
+      <c r="AA113">
+        <v>8.5</v>
+      </c>
+      <c r="AB113">
+        <v>1.05</v>
+      </c>
+      <c r="AC113">
+        <v>2.4</v>
+      </c>
+      <c r="AD113">
+        <v>2.9</v>
+      </c>
+      <c r="AE113">
+        <v>2.75</v>
+      </c>
+      <c r="AF113">
+        <v>1.05</v>
+      </c>
+      <c r="AG113">
+        <v>8</v>
+      </c>
+      <c r="AH113">
+        <v>1.36</v>
+      </c>
+      <c r="AI113">
+        <v>2.88</v>
+      </c>
+      <c r="AJ113">
+        <v>2.15</v>
+      </c>
+      <c r="AK113">
+        <v>1.6</v>
+      </c>
+      <c r="AL113">
+        <v>1.92</v>
+      </c>
+      <c r="AM113">
+        <v>1.84</v>
+      </c>
+      <c r="AN113">
+        <v>1.38</v>
+      </c>
+      <c r="AO113">
+        <v>1.31</v>
+      </c>
+      <c r="AP113">
+        <v>1.48</v>
+      </c>
+      <c r="AQ113">
+        <v>1.57</v>
+      </c>
+      <c r="AR113">
+        <v>1.13</v>
+      </c>
+      <c r="AS113">
+        <v>1.75</v>
+      </c>
+      <c r="AT113">
+        <v>1</v>
+      </c>
+      <c r="AU113">
+        <v>1.31</v>
+      </c>
+      <c r="AV113">
+        <v>1.46</v>
+      </c>
+      <c r="AW113">
+        <v>2.77</v>
+      </c>
+      <c r="AX113">
+        <v>0</v>
+      </c>
+      <c r="AY113">
+        <v>0</v>
+      </c>
+      <c r="AZ113">
+        <v>0</v>
+      </c>
+      <c r="BA113">
+        <v>0</v>
+      </c>
+      <c r="BB113">
+        <v>0</v>
+      </c>
+      <c r="BC113">
+        <v>0</v>
+      </c>
+      <c r="BD113">
+        <v>0</v>
+      </c>
+      <c r="BE113">
+        <v>0</v>
+      </c>
+      <c r="BF113">
+        <v>8</v>
+      </c>
+      <c r="BG113">
+        <v>5</v>
+      </c>
+      <c r="BH113">
+        <v>7</v>
+      </c>
+      <c r="BI113">
+        <v>6</v>
+      </c>
+      <c r="BJ113">
+        <v>15</v>
+      </c>
+      <c r="BK113">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Segunda División_2023.xlsx
@@ -460,10 +460,10 @@
     <t>['58']</t>
   </si>
   <si>
-    <t>['62']</t>
+    <t>['4504', '9002']</t>
   </si>
   <si>
-    <t>['4504', '9002']</t>
+    <t>['62']</t>
   </si>
   <si>
     <t>['61', '81']</t>
@@ -493,10 +493,10 @@
     <t>['45+3', '50']</t>
   </si>
   <si>
-    <t>['38', '54']</t>
+    <t>['12', '79', '88']</t>
   </si>
   <si>
-    <t>['12', '79', '88']</t>
+    <t>['38', '54']</t>
   </si>
   <si>
     <t>['36']</t>
@@ -640,16 +640,16 @@
     <t>['54']</t>
   </si>
   <si>
+    <t>['9001', '9005']</t>
+  </si>
+  <si>
     <t>['27']</t>
   </si>
   <si>
-    <t>['9001', '9005']</t>
+    <t>['45']</t>
   </si>
   <si>
     <t>['45+3']</t>
-  </si>
-  <si>
-    <t>['45']</t>
   </si>
 </sst>
 </file>
@@ -6221,7 +6221,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -8704,7 +8704,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -18594,7 +18594,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>5409863</v>
+        <v>5409861</v>
       </c>
       <c r="C93" t="s">
         <v>63</v>
@@ -18609,133 +18609,133 @@
         <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H93" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O93" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="Q93">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T93">
+        <v>2.6</v>
+      </c>
+      <c r="U93">
+        <v>2</v>
+      </c>
+      <c r="V93">
+        <v>4.3</v>
+      </c>
+      <c r="W93">
+        <v>1.45</v>
+      </c>
+      <c r="X93">
+        <v>2.56</v>
+      </c>
+      <c r="Y93">
         <v>3.1</v>
       </c>
-      <c r="U93">
-        <v>2.2</v>
-      </c>
-      <c r="V93">
-        <v>3.1</v>
-      </c>
-      <c r="W93">
-        <v>1.34</v>
-      </c>
-      <c r="X93">
-        <v>2.99</v>
-      </c>
-      <c r="Y93">
-        <v>2.59</v>
-      </c>
       <c r="Z93">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="AA93">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="AB93">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AC93">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="AD93">
         <v>3.2</v>
       </c>
       <c r="AE93">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="AF93">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AG93">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AH93">
+        <v>1.36</v>
+      </c>
+      <c r="AI93">
+        <v>2.79</v>
+      </c>
+      <c r="AJ93">
+        <v>2.2</v>
+      </c>
+      <c r="AK93">
+        <v>1.61</v>
+      </c>
+      <c r="AL93">
+        <v>1.92</v>
+      </c>
+      <c r="AM93">
+        <v>1.84</v>
+      </c>
+      <c r="AN93">
         <v>1.23</v>
       </c>
-      <c r="AI93">
-        <v>3.56</v>
-      </c>
-      <c r="AJ93">
-        <v>1.8</v>
-      </c>
-      <c r="AK93">
-        <v>1.93</v>
-      </c>
-      <c r="AL93">
-        <v>1.61</v>
-      </c>
-      <c r="AM93">
-        <v>2.25</v>
-      </c>
-      <c r="AN93">
-        <v>1.52</v>
-      </c>
       <c r="AO93">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AP93">
-        <v>1.4</v>
+        <v>1.74</v>
       </c>
       <c r="AQ93">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AR93">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AS93">
-        <v>1.13</v>
+        <v>1.75</v>
       </c>
       <c r="AT93">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AU93">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="AV93">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="AW93">
-        <v>3.41</v>
+        <v>3.31</v>
       </c>
       <c r="AX93">
         <v>0</v>
@@ -18762,7 +18762,7 @@
         <v>0</v>
       </c>
       <c r="BF93">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG93">
         <v>4</v>
@@ -18771,13 +18771,13 @@
         <v>6</v>
       </c>
       <c r="BI93">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BJ93">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BK93">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:63">
@@ -18824,7 +18824,7 @@
         <v>2</v>
       </c>
       <c r="O94" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P94" t="s">
         <v>122</v>
@@ -18976,7 +18976,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>5409865</v>
+        <v>5409863</v>
       </c>
       <c r="C95" t="s">
         <v>63</v>
@@ -18991,133 +18991,133 @@
         <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H95" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95" t="s">
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="Q95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S95">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T95">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="V95">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="W95">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
       <c r="X95">
-        <v>2.44</v>
+        <v>2.99</v>
       </c>
       <c r="Y95">
-        <v>3.32</v>
+        <v>2.59</v>
       </c>
       <c r="Z95">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AA95">
-        <v>8.699999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="AB95">
+        <v>1.09</v>
+      </c>
+      <c r="AC95">
+        <v>2.9</v>
+      </c>
+      <c r="AD95">
+        <v>3.2</v>
+      </c>
+      <c r="AE95">
+        <v>2.25</v>
+      </c>
+      <c r="AF95">
         <v>1.04</v>
       </c>
-      <c r="AC95">
-        <v>2.3</v>
-      </c>
-      <c r="AD95">
-        <v>2.9</v>
-      </c>
-      <c r="AE95">
-        <v>3</v>
-      </c>
-      <c r="AF95">
-        <v>1.08</v>
-      </c>
       <c r="AG95">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AH95">
+        <v>1.23</v>
+      </c>
+      <c r="AI95">
+        <v>3.56</v>
+      </c>
+      <c r="AJ95">
+        <v>1.8</v>
+      </c>
+      <c r="AK95">
+        <v>1.93</v>
+      </c>
+      <c r="AL95">
+        <v>1.61</v>
+      </c>
+      <c r="AM95">
+        <v>2.25</v>
+      </c>
+      <c r="AN95">
+        <v>1.52</v>
+      </c>
+      <c r="AO95">
+        <v>1.27</v>
+      </c>
+      <c r="AP95">
         <v>1.4</v>
       </c>
-      <c r="AI95">
-        <v>2.64</v>
-      </c>
-      <c r="AJ95">
-        <v>2.38</v>
-      </c>
-      <c r="AK95">
-        <v>1.51</v>
-      </c>
-      <c r="AL95">
-        <v>1.97</v>
-      </c>
-      <c r="AM95">
-        <v>1.79</v>
-      </c>
-      <c r="AN95">
-        <v>1.32</v>
-      </c>
-      <c r="AO95">
-        <v>1.31</v>
-      </c>
-      <c r="AP95">
-        <v>1.55</v>
-      </c>
       <c r="AQ95">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AR95">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.75</v>
+        <v>1.13</v>
       </c>
       <c r="AT95">
-        <v>1.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU95">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="AV95">
-        <v>1.18</v>
+        <v>1.68</v>
       </c>
       <c r="AW95">
-        <v>2.51</v>
+        <v>3.41</v>
       </c>
       <c r="AX95">
         <v>0</v>
@@ -19144,19 +19144,19 @@
         <v>0</v>
       </c>
       <c r="BF95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG95">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BH95">
         <v>6</v>
       </c>
       <c r="BI95">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BJ95">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK95">
         <v>11</v>
@@ -19167,7 +19167,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>5409861</v>
+        <v>5409865</v>
       </c>
       <c r="C96" t="s">
         <v>63</v>
@@ -19182,133 +19182,133 @@
         <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H96" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96">
         <v>1</v>
       </c>
       <c r="L96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M96">
         <v>1</v>
       </c>
       <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>82</v>
+      </c>
+      <c r="P96" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q96">
+        <v>5</v>
+      </c>
+      <c r="R96">
+        <v>5</v>
+      </c>
+      <c r="S96">
+        <v>10</v>
+      </c>
+      <c r="T96">
         <v>3</v>
       </c>
-      <c r="O96" t="s">
-        <v>149</v>
-      </c>
-      <c r="P96" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q96">
-        <v>10</v>
-      </c>
-      <c r="R96">
-        <v>2</v>
-      </c>
-      <c r="S96">
-        <v>12</v>
-      </c>
-      <c r="T96">
-        <v>2.6</v>
-      </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V96">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="W96">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="X96">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="Y96">
-        <v>3.1</v>
+        <v>3.32</v>
       </c>
       <c r="Z96">
+        <v>1.29</v>
+      </c>
+      <c r="AA96">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB96">
+        <v>1.04</v>
+      </c>
+      <c r="AC96">
+        <v>2.3</v>
+      </c>
+      <c r="AD96">
+        <v>2.9</v>
+      </c>
+      <c r="AE96">
+        <v>3</v>
+      </c>
+      <c r="AF96">
+        <v>1.08</v>
+      </c>
+      <c r="AG96">
+        <v>6.5</v>
+      </c>
+      <c r="AH96">
+        <v>1.4</v>
+      </c>
+      <c r="AI96">
+        <v>2.64</v>
+      </c>
+      <c r="AJ96">
+        <v>2.38</v>
+      </c>
+      <c r="AK96">
+        <v>1.51</v>
+      </c>
+      <c r="AL96">
+        <v>1.97</v>
+      </c>
+      <c r="AM96">
+        <v>1.79</v>
+      </c>
+      <c r="AN96">
         <v>1.32</v>
       </c>
-      <c r="AA96">
-        <v>7.7</v>
-      </c>
-      <c r="AB96">
-        <v>1.05</v>
-      </c>
-      <c r="AC96">
-        <v>2</v>
-      </c>
-      <c r="AD96">
-        <v>3.2</v>
-      </c>
-      <c r="AE96">
-        <v>3.5</v>
-      </c>
-      <c r="AF96">
-        <v>1.07</v>
-      </c>
-      <c r="AG96">
-        <v>7</v>
-      </c>
-      <c r="AH96">
-        <v>1.36</v>
-      </c>
-      <c r="AI96">
-        <v>2.79</v>
-      </c>
-      <c r="AJ96">
-        <v>2.2</v>
-      </c>
-      <c r="AK96">
-        <v>1.61</v>
-      </c>
-      <c r="AL96">
-        <v>1.92</v>
-      </c>
-      <c r="AM96">
-        <v>1.84</v>
-      </c>
-      <c r="AN96">
-        <v>1.23</v>
-      </c>
       <c r="AO96">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AP96">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="AQ96">
         <v>1.83</v>
       </c>
       <c r="AR96">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AS96">
         <v>1.75</v>
       </c>
       <c r="AT96">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AU96">
-        <v>1.78</v>
+        <v>1.33</v>
       </c>
       <c r="AV96">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="AW96">
-        <v>3.31</v>
+        <v>2.51</v>
       </c>
       <c r="AX96">
         <v>0</v>
@@ -19335,22 +19335,22 @@
         <v>0</v>
       </c>
       <c r="BF96">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BG96">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BH96">
         <v>6</v>
       </c>
       <c r="BI96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ96">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BK96">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:63">
@@ -20695,7 +20695,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>5409873</v>
+        <v>5409868</v>
       </c>
       <c r="C104" t="s">
         <v>63</v>
@@ -20710,43 +20710,43 @@
         <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H104" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L104">
         <v>1</v>
       </c>
       <c r="M104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O104" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="P104" t="s">
         <v>208</v>
       </c>
       <c r="Q104">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R104">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S104">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T104">
         <v>3</v>
@@ -20776,19 +20776,19 @@
         <v>1.04</v>
       </c>
       <c r="AC104">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AD104">
         <v>3.2</v>
       </c>
       <c r="AE104">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AF104">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AG104">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="AH104">
         <v>1.36</v>
@@ -20803,10 +20803,10 @@
         <v>1.6</v>
       </c>
       <c r="AL104">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="AM104">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="AN104">
         <v>1.32</v>
@@ -20815,28 +20815,28 @@
         <v>1.3</v>
       </c>
       <c r="AP104">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AQ104">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR104">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AS104">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="AT104">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AU104">
-        <v>1.82</v>
+        <v>1.49</v>
       </c>
       <c r="AV104">
-        <v>0.95</v>
+        <v>1.41</v>
       </c>
       <c r="AW104">
-        <v>2.77</v>
+        <v>2.9</v>
       </c>
       <c r="AX104">
         <v>0</v>
@@ -20863,22 +20863,22 @@
         <v>0</v>
       </c>
       <c r="BF104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG104">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH104">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BI104">
+        <v>10</v>
+      </c>
+      <c r="BJ104">
         <v>4</v>
       </c>
-      <c r="BJ104">
-        <v>12</v>
-      </c>
       <c r="BK104">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:63">
@@ -20886,7 +20886,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>5409868</v>
+        <v>5409873</v>
       </c>
       <c r="C105" t="s">
         <v>63</v>
@@ -20901,43 +20901,43 @@
         <v>15</v>
       </c>
       <c r="G105" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H105" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L105">
         <v>1</v>
       </c>
       <c r="M105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O105" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="P105" t="s">
         <v>209</v>
       </c>
       <c r="Q105">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R105">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S105">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T105">
         <v>3</v>
@@ -20967,19 +20967,19 @@
         <v>1.04</v>
       </c>
       <c r="AC105">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AD105">
         <v>3.2</v>
       </c>
       <c r="AE105">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AF105">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AG105">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="AH105">
         <v>1.36</v>
@@ -20994,10 +20994,10 @@
         <v>1.6</v>
       </c>
       <c r="AL105">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AM105">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="AN105">
         <v>1.32</v>
@@ -21006,28 +21006,28 @@
         <v>1.3</v>
       </c>
       <c r="AP105">
+        <v>1.56</v>
+      </c>
+      <c r="AQ105">
+        <v>1.67</v>
+      </c>
+      <c r="AR105">
+        <v>1</v>
+      </c>
+      <c r="AS105">
         <v>1.57</v>
       </c>
-      <c r="AQ105">
-        <v>1.43</v>
-      </c>
-      <c r="AR105">
-        <v>1.14</v>
-      </c>
-      <c r="AS105">
-        <v>1.25</v>
-      </c>
       <c r="AT105">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AU105">
-        <v>1.49</v>
+        <v>1.82</v>
       </c>
       <c r="AV105">
-        <v>1.41</v>
+        <v>0.95</v>
       </c>
       <c r="AW105">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="AX105">
         <v>0</v>
@@ -21054,22 +21054,22 @@
         <v>0</v>
       </c>
       <c r="BF105">
+        <v>3</v>
+      </c>
+      <c r="BG105">
+        <v>2</v>
+      </c>
+      <c r="BH105">
+        <v>9</v>
+      </c>
+      <c r="BI105">
         <v>4</v>
       </c>
-      <c r="BG105">
-        <v>7</v>
-      </c>
-      <c r="BH105">
-        <v>0</v>
-      </c>
-      <c r="BI105">
-        <v>10</v>
-      </c>
       <c r="BJ105">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BK105">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:63">
@@ -21268,7 +21268,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>5409879</v>
+        <v>5409880</v>
       </c>
       <c r="C107" t="s">
         <v>63</v>
@@ -21283,10 +21283,10 @@
         <v>16</v>
       </c>
       <c r="G107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H107" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -21313,145 +21313,145 @@
         <v>210</v>
       </c>
       <c r="Q107">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R107">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S107">
+        <v>10</v>
+      </c>
+      <c r="T107">
+        <v>2.5</v>
+      </c>
+      <c r="U107">
+        <v>2</v>
+      </c>
+      <c r="V107">
+        <v>4.5</v>
+      </c>
+      <c r="W107">
+        <v>1.46</v>
+      </c>
+      <c r="X107">
+        <v>2.53</v>
+      </c>
+      <c r="Y107">
+        <v>3.15</v>
+      </c>
+      <c r="Z107">
+        <v>1.31</v>
+      </c>
+      <c r="AA107">
+        <v>8.1</v>
+      </c>
+      <c r="AB107">
+        <v>1.04</v>
+      </c>
+      <c r="AC107">
+        <v>1.84</v>
+      </c>
+      <c r="AD107">
+        <v>3.2</v>
+      </c>
+      <c r="AE107">
+        <v>3.5</v>
+      </c>
+      <c r="AF107">
+        <v>1.05</v>
+      </c>
+      <c r="AG107">
+        <v>8</v>
+      </c>
+      <c r="AH107">
+        <v>1.36</v>
+      </c>
+      <c r="AI107">
+        <v>2.79</v>
+      </c>
+      <c r="AJ107">
+        <v>2.2</v>
+      </c>
+      <c r="AK107">
+        <v>1.6</v>
+      </c>
+      <c r="AL107">
+        <v>1.98</v>
+      </c>
+      <c r="AM107">
+        <v>1.79</v>
+      </c>
+      <c r="AN107">
+        <v>1.21</v>
+      </c>
+      <c r="AO107">
+        <v>1.28</v>
+      </c>
+      <c r="AP107">
+        <v>1.81</v>
+      </c>
+      <c r="AQ107">
+        <v>2</v>
+      </c>
+      <c r="AR107">
+        <v>1.14</v>
+      </c>
+      <c r="AS107">
+        <v>1.75</v>
+      </c>
+      <c r="AT107">
+        <v>1.38</v>
+      </c>
+      <c r="AU107">
+        <v>1.82</v>
+      </c>
+      <c r="AV107">
+        <v>1.52</v>
+      </c>
+      <c r="AW107">
+        <v>3.34</v>
+      </c>
+      <c r="AX107">
+        <v>0</v>
+      </c>
+      <c r="AY107">
+        <v>0</v>
+      </c>
+      <c r="AZ107">
+        <v>0</v>
+      </c>
+      <c r="BA107">
+        <v>0</v>
+      </c>
+      <c r="BB107">
+        <v>0</v>
+      </c>
+      <c r="BC107">
+        <v>0</v>
+      </c>
+      <c r="BD107">
+        <v>0</v>
+      </c>
+      <c r="BE107">
+        <v>0</v>
+      </c>
+      <c r="BF107">
+        <v>5</v>
+      </c>
+      <c r="BG107">
+        <v>3</v>
+      </c>
+      <c r="BH107">
         <v>9</v>
       </c>
-      <c r="T107">
-        <v>3.4</v>
-      </c>
-      <c r="U107">
-        <v>1.83</v>
-      </c>
-      <c r="V107">
-        <v>3.6</v>
-      </c>
-      <c r="W107">
-        <v>1.53</v>
-      </c>
-      <c r="X107">
-        <v>2.34</v>
-      </c>
-      <c r="Y107">
-        <v>3.48</v>
-      </c>
-      <c r="Z107">
-        <v>1.26</v>
-      </c>
-      <c r="AA107">
-        <v>10</v>
-      </c>
-      <c r="AB107">
-        <v>1.02</v>
-      </c>
-      <c r="AC107">
-        <v>2.5</v>
-      </c>
-      <c r="AD107">
+      <c r="BI107">
         <v>3</v>
       </c>
-      <c r="AE107">
-        <v>2.63</v>
-      </c>
-      <c r="AF107">
-        <v>1.08</v>
-      </c>
-      <c r="AG107">
-        <v>6.5</v>
-      </c>
-      <c r="AH107">
-        <v>1.53</v>
-      </c>
-      <c r="AI107">
-        <v>2.38</v>
-      </c>
-      <c r="AJ107">
-        <v>2.4</v>
-      </c>
-      <c r="AK107">
-        <v>1.44</v>
-      </c>
-      <c r="AL107">
-        <v>2.04</v>
-      </c>
-      <c r="AM107">
-        <v>1.74</v>
-      </c>
-      <c r="AN107">
-        <v>1.39</v>
-      </c>
-      <c r="AO107">
-        <v>1.33</v>
-      </c>
-      <c r="AP107">
-        <v>1.44</v>
-      </c>
-      <c r="AQ107">
-        <v>1.29</v>
-      </c>
-      <c r="AR107">
-        <v>1.43</v>
-      </c>
-      <c r="AS107">
-        <v>1.13</v>
-      </c>
-      <c r="AT107">
-        <v>1.63</v>
-      </c>
-      <c r="AU107">
-        <v>1.66</v>
-      </c>
-      <c r="AV107">
-        <v>1.24</v>
-      </c>
-      <c r="AW107">
-        <v>2.9</v>
-      </c>
-      <c r="AX107">
-        <v>0</v>
-      </c>
-      <c r="AY107">
-        <v>0</v>
-      </c>
-      <c r="AZ107">
-        <v>0</v>
-      </c>
-      <c r="BA107">
-        <v>0</v>
-      </c>
-      <c r="BB107">
-        <v>0</v>
-      </c>
-      <c r="BC107">
-        <v>1.95</v>
-      </c>
-      <c r="BD107">
-        <v>0</v>
-      </c>
-      <c r="BE107">
-        <v>0</v>
-      </c>
-      <c r="BF107">
-        <v>2</v>
-      </c>
-      <c r="BG107">
-        <v>4</v>
-      </c>
-      <c r="BH107">
-        <v>5</v>
-      </c>
-      <c r="BI107">
+      <c r="BJ107">
+        <v>14</v>
+      </c>
+      <c r="BK107">
         <v>6</v>
-      </c>
-      <c r="BJ107">
-        <v>7</v>
-      </c>
-      <c r="BK107">
-        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:63">
@@ -21459,7 +21459,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>5409880</v>
+        <v>5409879</v>
       </c>
       <c r="C108" t="s">
         <v>63</v>
@@ -21474,10 +21474,10 @@
         <v>16</v>
       </c>
       <c r="G108" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H108" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -21504,103 +21504,103 @@
         <v>211</v>
       </c>
       <c r="Q108">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S108">
+        <v>9</v>
+      </c>
+      <c r="T108">
+        <v>3.4</v>
+      </c>
+      <c r="U108">
+        <v>1.83</v>
+      </c>
+      <c r="V108">
+        <v>3.6</v>
+      </c>
+      <c r="W108">
+        <v>1.53</v>
+      </c>
+      <c r="X108">
+        <v>2.34</v>
+      </c>
+      <c r="Y108">
+        <v>3.48</v>
+      </c>
+      <c r="Z108">
+        <v>1.26</v>
+      </c>
+      <c r="AA108">
         <v>10</v>
       </c>
-      <c r="T108">
+      <c r="AB108">
+        <v>1.02</v>
+      </c>
+      <c r="AC108">
         <v>2.5</v>
       </c>
-      <c r="U108">
-        <v>2</v>
-      </c>
-      <c r="V108">
-        <v>4.5</v>
-      </c>
-      <c r="W108">
-        <v>1.46</v>
-      </c>
-      <c r="X108">
-        <v>2.53</v>
-      </c>
-      <c r="Y108">
-        <v>3.15</v>
-      </c>
-      <c r="Z108">
-        <v>1.31</v>
-      </c>
-      <c r="AA108">
-        <v>8.1</v>
-      </c>
-      <c r="AB108">
-        <v>1.04</v>
-      </c>
-      <c r="AC108">
-        <v>1.84</v>
-      </c>
       <c r="AD108">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AE108">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="AF108">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AG108">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AH108">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="AI108">
-        <v>2.79</v>
+        <v>2.38</v>
       </c>
       <c r="AJ108">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AK108">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AL108">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="AM108">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="AN108">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
       <c r="AO108">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AP108">
-        <v>1.81</v>
+        <v>1.44</v>
       </c>
       <c r="AQ108">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AR108">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="AS108">
-        <v>1.75</v>
+        <v>1.13</v>
       </c>
       <c r="AT108">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AU108">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="AV108">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="AW108">
-        <v>3.34</v>
+        <v>2.9</v>
       </c>
       <c r="AX108">
         <v>0</v>
@@ -21618,7 +21618,7 @@
         <v>0</v>
       </c>
       <c r="BC108">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="BD108">
         <v>0</v>
@@ -21627,22 +21627,22 @@
         <v>0</v>
       </c>
       <c r="BF108">
+        <v>2</v>
+      </c>
+      <c r="BG108">
+        <v>4</v>
+      </c>
+      <c r="BH108">
         <v>5</v>
       </c>
-      <c r="BG108">
-        <v>3</v>
-      </c>
-      <c r="BH108">
-        <v>9</v>
-      </c>
       <c r="BI108">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ108">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BK108">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:63">
@@ -21650,7 +21650,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>5409878</v>
+        <v>5409874</v>
       </c>
       <c r="C109" t="s">
         <v>63</v>
@@ -21665,10 +21665,10 @@
         <v>16</v>
       </c>
       <c r="G109" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H109" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -21680,118 +21680,118 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="P109" t="s">
         <v>82</v>
       </c>
       <c r="Q109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S109">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T109">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="U109">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V109">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="W109">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X109">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="Y109">
-        <v>3.48</v>
+        <v>3.34</v>
       </c>
       <c r="Z109">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AA109">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB109">
         <v>1.03</v>
       </c>
       <c r="AC109">
-        <v>1.84</v>
+        <v>2.68</v>
       </c>
       <c r="AD109">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="AE109">
-        <v>3.5</v>
+        <v>2.32</v>
       </c>
       <c r="AF109">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AG109">
-        <v>6.45</v>
+        <v>6.95</v>
       </c>
       <c r="AH109">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="AI109">
-        <v>2.52</v>
+        <v>2.71</v>
       </c>
       <c r="AJ109">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="AK109">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AL109">
-        <v>2.09</v>
+        <v>1.97</v>
       </c>
       <c r="AM109">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="AN109">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AO109">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AP109">
-        <v>1.82</v>
+        <v>1.38</v>
       </c>
       <c r="AQ109">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="AR109">
-        <v>0.57</v>
+        <v>2</v>
       </c>
       <c r="AS109">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AT109">
-        <v>0.5</v>
+        <v>1.88</v>
       </c>
       <c r="AU109">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="AV109">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="AW109">
-        <v>2.83</v>
+        <v>3.19</v>
       </c>
       <c r="AX109">
         <v>0</v>
@@ -21818,22 +21818,22 @@
         <v>0</v>
       </c>
       <c r="BF109">
+        <v>3</v>
+      </c>
+      <c r="BG109">
         <v>5</v>
       </c>
-      <c r="BG109">
-        <v>6</v>
-      </c>
       <c r="BH109">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BI109">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BJ109">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BK109">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:63">
@@ -21841,7 +21841,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>5409874</v>
+        <v>5409878</v>
       </c>
       <c r="C110" t="s">
         <v>63</v>
@@ -21856,10 +21856,10 @@
         <v>16</v>
       </c>
       <c r="G110" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H110" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -21871,118 +21871,118 @@
         <v>0</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110">
         <v>0</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O110" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="P110" t="s">
         <v>82</v>
       </c>
       <c r="Q110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S110">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T110">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="U110">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V110">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="W110">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X110">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="Y110">
-        <v>3.34</v>
+        <v>3.48</v>
       </c>
       <c r="Z110">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AA110">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB110">
         <v>1.03</v>
       </c>
       <c r="AC110">
-        <v>2.68</v>
+        <v>1.84</v>
       </c>
       <c r="AD110">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="AE110">
-        <v>2.32</v>
+        <v>3.5</v>
       </c>
       <c r="AF110">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AG110">
-        <v>6.95</v>
+        <v>6.45</v>
       </c>
       <c r="AH110">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="AI110">
-        <v>2.71</v>
+        <v>2.52</v>
       </c>
       <c r="AJ110">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="AK110">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AL110">
-        <v>1.97</v>
+        <v>2.09</v>
       </c>
       <c r="AM110">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="AN110">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AO110">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AP110">
-        <v>1.38</v>
+        <v>1.82</v>
       </c>
       <c r="AQ110">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="AR110">
-        <v>2</v>
+        <v>0.57</v>
       </c>
       <c r="AS110">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT110">
-        <v>1.88</v>
+        <v>0.5</v>
       </c>
       <c r="AU110">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="AV110">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AW110">
-        <v>3.19</v>
+        <v>2.83</v>
       </c>
       <c r="AX110">
         <v>0</v>
@@ -22009,22 +22009,22 @@
         <v>0</v>
       </c>
       <c r="BF110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG110">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH110">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI110">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BJ110">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BK110">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:63">
@@ -22223,7 +22223,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>5409877</v>
+        <v>5409875</v>
       </c>
       <c r="C112" t="s">
         <v>63</v>
@@ -22238,10 +22238,10 @@
         <v>16</v>
       </c>
       <c r="G112" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H112" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -22253,13 +22253,13 @@
         <v>1</v>
       </c>
       <c r="L112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M112">
         <v>0</v>
       </c>
       <c r="N112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O112" t="s">
         <v>159</v>
@@ -22268,10 +22268,10 @@
         <v>82</v>
       </c>
       <c r="Q112">
+        <v>4</v>
+      </c>
+      <c r="R112">
         <v>6</v>
-      </c>
-      <c r="R112">
-        <v>4</v>
       </c>
       <c r="S112">
         <v>10</v>
@@ -22286,19 +22286,19 @@
         <v>3.5</v>
       </c>
       <c r="W112">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="X112">
-        <v>2.47</v>
+        <v>2.62</v>
       </c>
       <c r="Y112">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="Z112">
         <v>1.3</v>
       </c>
       <c r="AA112">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AB112">
         <v>1.05</v>
@@ -22313,28 +22313,28 @@
         <v>2.75</v>
       </c>
       <c r="AF112">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AG112">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH112">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AI112">
-        <v>2.67</v>
+        <v>2.88</v>
       </c>
       <c r="AJ112">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AK112">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AL112">
         <v>1.92</v>
       </c>
       <c r="AM112">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AN112">
         <v>1.38</v>
@@ -22346,25 +22346,25 @@
         <v>1.48</v>
       </c>
       <c r="AQ112">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AR112">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AS112">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AT112">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AU112">
-        <v>1.58</v>
+        <v>1.31</v>
       </c>
       <c r="AV112">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="AW112">
-        <v>3.23</v>
+        <v>2.77</v>
       </c>
       <c r="AX112">
         <v>0</v>
@@ -22394,19 +22394,19 @@
         <v>8</v>
       </c>
       <c r="BG112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH112">
+        <v>7</v>
+      </c>
+      <c r="BI112">
         <v>6</v>
       </c>
-      <c r="BI112">
-        <v>3</v>
-      </c>
       <c r="BJ112">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BK112">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:63">
@@ -22414,7 +22414,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>5409875</v>
+        <v>5409877</v>
       </c>
       <c r="C113" t="s">
         <v>63</v>
@@ -22429,10 +22429,10 @@
         <v>16</v>
       </c>
       <c r="G113" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H113" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -22444,13 +22444,13 @@
         <v>1</v>
       </c>
       <c r="L113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M113">
         <v>0</v>
       </c>
       <c r="N113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O113" t="s">
         <v>160</v>
@@ -22459,10 +22459,10 @@
         <v>82</v>
       </c>
       <c r="Q113">
+        <v>6</v>
+      </c>
+      <c r="R113">
         <v>4</v>
-      </c>
-      <c r="R113">
-        <v>6</v>
       </c>
       <c r="S113">
         <v>10</v>
@@ -22477,19 +22477,19 @@
         <v>3.5</v>
       </c>
       <c r="W113">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="X113">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="Y113">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="Z113">
         <v>1.3</v>
       </c>
       <c r="AA113">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AB113">
         <v>1.05</v>
@@ -22504,28 +22504,28 @@
         <v>2.75</v>
       </c>
       <c r="AF113">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AG113">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH113">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AI113">
-        <v>2.88</v>
+        <v>2.67</v>
       </c>
       <c r="AJ113">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AK113">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AL113">
         <v>1.92</v>
       </c>
       <c r="AM113">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AN113">
         <v>1.38</v>
@@ -22537,25 +22537,25 @@
         <v>1.48</v>
       </c>
       <c r="AQ113">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AR113">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AS113">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AT113">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU113">
-        <v>1.31</v>
+        <v>1.58</v>
       </c>
       <c r="AV113">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="AW113">
-        <v>2.77</v>
+        <v>3.23</v>
       </c>
       <c r="AX113">
         <v>0</v>
@@ -22585,19 +22585,19 @@
         <v>8</v>
       </c>
       <c r="BG113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH113">
+        <v>6</v>
+      </c>
+      <c r="BI113">
+        <v>3</v>
+      </c>
+      <c r="BJ113">
+        <v>14</v>
+      </c>
+      <c r="BK113">
         <v>7</v>
-      </c>
-      <c r="BI113">
-        <v>6</v>
-      </c>
-      <c r="BJ113">
-        <v>15</v>
-      </c>
-      <c r="BK113">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -211,7 +211,7 @@
     <t>2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Lautaro de Buin </t>
+    <t>Lautaro de Buin</t>
   </si>
   <si>
     <t>Real San Joaquín</t>
@@ -499,6 +499,21 @@
     <t>['38', '54']</t>
   </si>
   <si>
+    <t>['69', '85', '90+4']</t>
+  </si>
+  <si>
+    <t>['43', '74']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -554,9 +569,6 @@
   </si>
   <si>
     <t>['82']</t>
-  </si>
-  <si>
-    <t>['43']</t>
   </si>
   <si>
     <t>['46']</t>
@@ -650,6 +662,18 @@
   </si>
   <si>
     <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['25', '62']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['17', '50', '57']</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK113"/>
+  <dimension ref="A1:BK120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT2">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1533,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT3">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1637,7 +1661,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1724,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT4">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1828,7 +1852,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1915,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -2106,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT6">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2297,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT7">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2401,7 +2425,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2592,7 +2616,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>10</v>
@@ -2783,7 +2807,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2873,7 +2897,7 @@
         <v>1.75</v>
       </c>
       <c r="AT10">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2974,7 +2998,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3165,7 +3189,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3252,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT12">
         <v>1</v>
@@ -3356,7 +3380,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3634,7 +3658,7 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -3825,10 +3849,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT15">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU15">
         <v>0.8</v>
@@ -3929,7 +3953,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4016,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT16">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU16">
         <v>1.29</v>
@@ -4207,10 +4231,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT17">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU17">
         <v>1.34</v>
@@ -4401,7 +4425,7 @@
         <v>1.25</v>
       </c>
       <c r="AT18">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4589,10 +4613,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT19">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU19">
         <v>2.07</v>
@@ -4693,7 +4717,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4780,10 +4804,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT20">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU20">
         <v>1.68</v>
@@ -5075,7 +5099,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5266,7 +5290,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5457,7 +5481,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>13</v>
@@ -6030,7 +6054,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6308,10 +6332,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT28">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU28">
         <v>1.41</v>
@@ -6502,7 +6526,7 @@
         <v>1.44</v>
       </c>
       <c r="AT29">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU29">
         <v>2.24</v>
@@ -6690,10 +6714,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT30">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU30">
         <v>1.7</v>
@@ -6881,10 +6905,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT31">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU31">
         <v>1.03</v>
@@ -7072,7 +7096,7 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT32">
         <v>1.38</v>
@@ -7176,7 +7200,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7263,10 +7287,10 @@
         <v>0.5</v>
       </c>
       <c r="AS33">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT33">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU33">
         <v>2.42</v>
@@ -7367,7 +7391,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7454,10 +7478,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT34">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU34">
         <v>1.82</v>
@@ -7749,7 +7773,7 @@
         <v>96</v>
       </c>
       <c r="P36" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7839,7 +7863,7 @@
         <v>1.11</v>
       </c>
       <c r="AT36">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU36">
         <v>1.89</v>
@@ -7940,7 +7964,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8218,7 +8242,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT38">
         <v>0.88</v>
@@ -8513,7 +8537,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9086,7 +9110,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9173,10 +9197,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT43">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU43">
         <v>1.3</v>
@@ -9277,7 +9301,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9367,7 +9391,7 @@
         <v>1.75</v>
       </c>
       <c r="AT44">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU44">
         <v>1.65</v>
@@ -9468,7 +9492,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9558,7 +9582,7 @@
         <v>1.44</v>
       </c>
       <c r="AT45">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU45">
         <v>1.88</v>
@@ -9746,7 +9770,7 @@
         <v>1.67</v>
       </c>
       <c r="AS46">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT46">
         <v>1.88</v>
@@ -9850,7 +9874,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9937,7 +9961,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT47">
         <v>0.89</v>
@@ -10041,7 +10065,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -10319,10 +10343,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT49">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU49">
         <v>1.97</v>
@@ -10423,7 +10447,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q50">
         <v>9</v>
@@ -10510,10 +10534,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT50">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU50">
         <v>1.15</v>
@@ -10701,7 +10725,7 @@
         <v>2.33</v>
       </c>
       <c r="AS51">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT51">
         <v>1</v>
@@ -10805,7 +10829,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -10892,10 +10916,10 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT52">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU52">
         <v>1.54</v>
@@ -10996,7 +11020,7 @@
         <v>82</v>
       </c>
       <c r="P53" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11086,7 +11110,7 @@
         <v>1.13</v>
       </c>
       <c r="AT53">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU53">
         <v>1.83</v>
@@ -11274,10 +11298,10 @@
         <v>0.33</v>
       </c>
       <c r="AS54">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT54">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU54">
         <v>1.02</v>
@@ -11569,7 +11593,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -11847,7 +11871,7 @@
         <v>1.75</v>
       </c>
       <c r="AS57">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT57">
         <v>1.38</v>
@@ -12038,7 +12062,7 @@
         <v>0.75</v>
       </c>
       <c r="AS58">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT58">
         <v>0.89</v>
@@ -12229,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT59">
         <v>0.5</v>
@@ -12423,7 +12447,7 @@
         <v>1.88</v>
       </c>
       <c r="AT60">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU60">
         <v>1.44</v>
@@ -12614,7 +12638,7 @@
         <v>1.44</v>
       </c>
       <c r="AT61">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU61">
         <v>1.77</v>
@@ -12802,10 +12826,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT62">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU62">
         <v>1.52</v>
@@ -12906,7 +12930,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -12993,7 +13017,7 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT63">
         <v>1</v>
@@ -13187,7 +13211,7 @@
         <v>1.13</v>
       </c>
       <c r="AT64">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU64">
         <v>1.7</v>
@@ -13288,7 +13312,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13375,7 +13399,7 @@
         <v>1.25</v>
       </c>
       <c r="AS65">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT65">
         <v>1.88</v>
@@ -13569,7 +13593,7 @@
         <v>1.25</v>
       </c>
       <c r="AT66">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU66">
         <v>1.47</v>
@@ -13670,7 +13694,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>16</v>
@@ -13861,7 +13885,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13948,7 +13972,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT68">
         <v>0.88</v>
@@ -14052,7 +14076,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q69">
         <v>9</v>
@@ -14142,7 +14166,7 @@
         <v>1.75</v>
       </c>
       <c r="AT69">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU69">
         <v>1.07</v>
@@ -14330,7 +14354,7 @@
         <v>0.25</v>
       </c>
       <c r="AS70">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT70">
         <v>0.5</v>
@@ -14434,7 +14458,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14524,7 +14548,7 @@
         <v>1.88</v>
       </c>
       <c r="AT71">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU71">
         <v>1.44</v>
@@ -14625,7 +14649,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -14712,10 +14736,10 @@
         <v>0.67</v>
       </c>
       <c r="AS72">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT72">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU72">
         <v>1.14</v>
@@ -15094,10 +15118,10 @@
         <v>0.2</v>
       </c>
       <c r="AS74">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT74">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU74">
         <v>1.95</v>
@@ -15198,7 +15222,7 @@
         <v>139</v>
       </c>
       <c r="P75" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15288,7 +15312,7 @@
         <v>1.11</v>
       </c>
       <c r="AT75">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU75">
         <v>1.83</v>
@@ -15389,7 +15413,7 @@
         <v>128</v>
       </c>
       <c r="P76" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15476,7 +15500,7 @@
         <v>0.6</v>
       </c>
       <c r="AS76">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT76">
         <v>0.89</v>
@@ -15670,7 +15694,7 @@
         <v>1.88</v>
       </c>
       <c r="AT77">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU77">
         <v>1.51</v>
@@ -15858,7 +15882,7 @@
         <v>1.6</v>
       </c>
       <c r="AS78">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT78">
         <v>1.38</v>
@@ -15962,7 +15986,7 @@
         <v>82</v>
       </c>
       <c r="P79" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16240,7 +16264,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT80">
         <v>0.88</v>
@@ -16344,7 +16368,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q81">
         <v>11</v>
@@ -16434,7 +16458,7 @@
         <v>1.75</v>
       </c>
       <c r="AT81">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU81">
         <v>1.17</v>
@@ -16535,7 +16559,7 @@
         <v>82</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16813,10 +16837,10 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT83">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU83">
         <v>1.88</v>
@@ -16917,7 +16941,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17004,7 +17028,7 @@
         <v>1.33</v>
       </c>
       <c r="AS84">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT84">
         <v>1</v>
@@ -17108,7 +17132,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q85">
         <v>12</v>
@@ -17198,7 +17222,7 @@
         <v>1.13</v>
       </c>
       <c r="AT85">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU85">
         <v>1.67</v>
@@ -17386,10 +17410,10 @@
         <v>0.2</v>
       </c>
       <c r="AS86">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT86">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU86">
         <v>1.17</v>
@@ -17580,7 +17604,7 @@
         <v>1.44</v>
       </c>
       <c r="AT87">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU87">
         <v>1.67</v>
@@ -17768,7 +17792,7 @@
         <v>1.17</v>
       </c>
       <c r="AS88">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT88">
         <v>1</v>
@@ -17872,7 +17896,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -17959,7 +17983,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT89">
         <v>0.89</v>
@@ -18063,7 +18087,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18153,7 +18177,7 @@
         <v>1.11</v>
       </c>
       <c r="AT90">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU90">
         <v>1.66</v>
@@ -18254,7 +18278,7 @@
         <v>82</v>
       </c>
       <c r="P91" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18344,7 +18368,7 @@
         <v>1.25</v>
       </c>
       <c r="AT91">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU91">
         <v>1.44</v>
@@ -18535,7 +18559,7 @@
         <v>1.11</v>
       </c>
       <c r="AT92">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU92">
         <v>1.62</v>
@@ -19209,7 +19233,7 @@
         <v>82</v>
       </c>
       <c r="P96" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19299,7 +19323,7 @@
         <v>1.75</v>
       </c>
       <c r="AT96">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU96">
         <v>1.33</v>
@@ -19487,7 +19511,7 @@
         <v>1.33</v>
       </c>
       <c r="AS97">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT97">
         <v>1.38</v>
@@ -19591,7 +19615,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19782,7 +19806,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -19973,7 +19997,7 @@
         <v>143</v>
       </c>
       <c r="P100" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20060,10 +20084,10 @@
         <v>0.71</v>
       </c>
       <c r="AS100">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT100">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU100">
         <v>1.61</v>
@@ -20164,7 +20188,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q101">
         <v>9</v>
@@ -20251,10 +20275,10 @@
         <v>2.17</v>
       </c>
       <c r="AS101">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT101">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU101">
         <v>1.25</v>
@@ -20442,10 +20466,10 @@
         <v>0.17</v>
       </c>
       <c r="AS102">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT102">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU102">
         <v>1.58</v>
@@ -20633,10 +20657,10 @@
         <v>0.57</v>
       </c>
       <c r="AS103">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT103">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU103">
         <v>1.53</v>
@@ -20737,7 +20761,7 @@
         <v>128</v>
       </c>
       <c r="P104" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -20827,7 +20851,7 @@
         <v>1.25</v>
       </c>
       <c r="AT104">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU104">
         <v>1.49</v>
@@ -20928,7 +20952,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21015,7 +21039,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT105">
         <v>1</v>
@@ -21206,10 +21230,10 @@
         <v>0.86</v>
       </c>
       <c r="AS106">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT106">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU106">
         <v>1.4</v>
@@ -21310,7 +21334,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -21501,7 +21525,7 @@
         <v>82</v>
       </c>
       <c r="P108" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21591,7 +21615,7 @@
         <v>1.13</v>
       </c>
       <c r="AT108">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU108">
         <v>1.66</v>
@@ -21779,7 +21803,7 @@
         <v>2</v>
       </c>
       <c r="AS109">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT109">
         <v>1.88</v>
@@ -22598,6 +22622,1343 @@
       </c>
       <c r="BK113">
         <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>5409882</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45135.875</v>
+      </c>
+      <c r="F114">
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>70</v>
+      </c>
+      <c r="H114" t="s">
+        <v>73</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>5</v>
+      </c>
+      <c r="O114" t="s">
+        <v>161</v>
+      </c>
+      <c r="P114" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q114">
+        <v>4</v>
+      </c>
+      <c r="R114">
+        <v>5</v>
+      </c>
+      <c r="S114">
+        <v>9</v>
+      </c>
+      <c r="T114">
+        <v>2.4</v>
+      </c>
+      <c r="U114">
+        <v>2.05</v>
+      </c>
+      <c r="V114">
+        <v>5</v>
+      </c>
+      <c r="W114">
+        <v>1.47</v>
+      </c>
+      <c r="X114">
+        <v>2.5</v>
+      </c>
+      <c r="Y114">
+        <v>3.22</v>
+      </c>
+      <c r="Z114">
+        <v>1.3</v>
+      </c>
+      <c r="AA114">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB114">
+        <v>1.04</v>
+      </c>
+      <c r="AC114">
+        <v>1.73</v>
+      </c>
+      <c r="AD114">
+        <v>3.5</v>
+      </c>
+      <c r="AE114">
+        <v>4</v>
+      </c>
+      <c r="AF114">
+        <v>1.06</v>
+      </c>
+      <c r="AG114">
+        <v>9</v>
+      </c>
+      <c r="AH114">
+        <v>1.37</v>
+      </c>
+      <c r="AI114">
+        <v>2.95</v>
+      </c>
+      <c r="AJ114">
+        <v>2.25</v>
+      </c>
+      <c r="AK114">
+        <v>1.62</v>
+      </c>
+      <c r="AL114">
+        <v>2.01</v>
+      </c>
+      <c r="AM114">
+        <v>1.76</v>
+      </c>
+      <c r="AN114">
+        <v>1.17</v>
+      </c>
+      <c r="AO114">
+        <v>1.27</v>
+      </c>
+      <c r="AP114">
+        <v>1.9</v>
+      </c>
+      <c r="AQ114">
+        <v>2.75</v>
+      </c>
+      <c r="AR114">
+        <v>1.38</v>
+      </c>
+      <c r="AS114">
+        <v>2.78</v>
+      </c>
+      <c r="AT114">
+        <v>1.22</v>
+      </c>
+      <c r="AU114">
+        <v>1.46</v>
+      </c>
+      <c r="AV114">
+        <v>1.49</v>
+      </c>
+      <c r="AW114">
+        <v>2.95</v>
+      </c>
+      <c r="AX114">
+        <v>0</v>
+      </c>
+      <c r="AY114">
+        <v>0</v>
+      </c>
+      <c r="AZ114">
+        <v>0</v>
+      </c>
+      <c r="BA114">
+        <v>0</v>
+      </c>
+      <c r="BB114">
+        <v>0</v>
+      </c>
+      <c r="BC114">
+        <v>0</v>
+      </c>
+      <c r="BD114">
+        <v>0</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
+      <c r="BF114">
+        <v>7</v>
+      </c>
+      <c r="BG114">
+        <v>3</v>
+      </c>
+      <c r="BH114">
+        <v>7</v>
+      </c>
+      <c r="BI114">
+        <v>5</v>
+      </c>
+      <c r="BJ114">
+        <v>14</v>
+      </c>
+      <c r="BK114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>5409887</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45136.66666666666</v>
+      </c>
+      <c r="F115">
+        <v>17</v>
+      </c>
+      <c r="G115" t="s">
+        <v>66</v>
+      </c>
+      <c r="H115" t="s">
+        <v>78</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115" t="s">
+        <v>82</v>
+      </c>
+      <c r="P115" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q115">
+        <v>3</v>
+      </c>
+      <c r="R115">
+        <v>5</v>
+      </c>
+      <c r="S115">
+        <v>8</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
+        <v>2</v>
+      </c>
+      <c r="V115">
+        <v>4</v>
+      </c>
+      <c r="W115">
+        <v>1.46</v>
+      </c>
+      <c r="X115">
+        <v>2.53</v>
+      </c>
+      <c r="Y115">
+        <v>3.15</v>
+      </c>
+      <c r="Z115">
+        <v>1.31</v>
+      </c>
+      <c r="AA115">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB115">
+        <v>1.04</v>
+      </c>
+      <c r="AC115">
+        <v>2.05</v>
+      </c>
+      <c r="AD115">
+        <v>3.1</v>
+      </c>
+      <c r="AE115">
+        <v>3.25</v>
+      </c>
+      <c r="AF115">
+        <v>1.04</v>
+      </c>
+      <c r="AG115">
+        <v>10.75</v>
+      </c>
+      <c r="AH115">
+        <v>1.36</v>
+      </c>
+      <c r="AI115">
+        <v>2.78</v>
+      </c>
+      <c r="AJ115">
+        <v>2.25</v>
+      </c>
+      <c r="AK115">
+        <v>1.62</v>
+      </c>
+      <c r="AL115">
+        <v>1.9</v>
+      </c>
+      <c r="AM115">
+        <v>1.77</v>
+      </c>
+      <c r="AN115">
+        <v>1.28</v>
+      </c>
+      <c r="AO115">
+        <v>1.3</v>
+      </c>
+      <c r="AP115">
+        <v>1.65</v>
+      </c>
+      <c r="AQ115">
+        <v>2.29</v>
+      </c>
+      <c r="AR115">
+        <v>0.63</v>
+      </c>
+      <c r="AS115">
+        <v>2.13</v>
+      </c>
+      <c r="AT115">
+        <v>0.67</v>
+      </c>
+      <c r="AU115">
+        <v>1.6</v>
+      </c>
+      <c r="AV115">
+        <v>1.2</v>
+      </c>
+      <c r="AW115">
+        <v>2.8</v>
+      </c>
+      <c r="AX115">
+        <v>0</v>
+      </c>
+      <c r="AY115">
+        <v>0</v>
+      </c>
+      <c r="AZ115">
+        <v>0</v>
+      </c>
+      <c r="BA115">
+        <v>0</v>
+      </c>
+      <c r="BB115">
+        <v>0</v>
+      </c>
+      <c r="BC115">
+        <v>0</v>
+      </c>
+      <c r="BD115">
+        <v>0</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>4</v>
+      </c>
+      <c r="BG115">
+        <v>4</v>
+      </c>
+      <c r="BH115">
+        <v>7</v>
+      </c>
+      <c r="BI115">
+        <v>5</v>
+      </c>
+      <c r="BJ115">
+        <v>11</v>
+      </c>
+      <c r="BK115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>5409884</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45136.6875</v>
+      </c>
+      <c r="F116">
+        <v>17</v>
+      </c>
+      <c r="G116" t="s">
+        <v>68</v>
+      </c>
+      <c r="H116" t="s">
+        <v>74</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>162</v>
+      </c>
+      <c r="P116" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q116">
+        <v>6</v>
+      </c>
+      <c r="R116">
+        <v>6</v>
+      </c>
+      <c r="S116">
+        <v>12</v>
+      </c>
+      <c r="T116">
+        <v>2.88</v>
+      </c>
+      <c r="U116">
+        <v>2</v>
+      </c>
+      <c r="V116">
+        <v>3.6</v>
+      </c>
+      <c r="W116">
+        <v>1.45</v>
+      </c>
+      <c r="X116">
+        <v>2.56</v>
+      </c>
+      <c r="Y116">
+        <v>3.1</v>
+      </c>
+      <c r="Z116">
+        <v>1.32</v>
+      </c>
+      <c r="AA116">
+        <v>8.1</v>
+      </c>
+      <c r="AB116">
+        <v>1.04</v>
+      </c>
+      <c r="AC116">
+        <v>2.2</v>
+      </c>
+      <c r="AD116">
+        <v>3</v>
+      </c>
+      <c r="AE116">
+        <v>3.1</v>
+      </c>
+      <c r="AF116">
+        <v>1.07</v>
+      </c>
+      <c r="AG116">
+        <v>7.5</v>
+      </c>
+      <c r="AH116">
+        <v>1.36</v>
+      </c>
+      <c r="AI116">
+        <v>2.79</v>
+      </c>
+      <c r="AJ116">
+        <v>2.2</v>
+      </c>
+      <c r="AK116">
+        <v>1.65</v>
+      </c>
+      <c r="AL116">
+        <v>1.88</v>
+      </c>
+      <c r="AM116">
+        <v>1.78</v>
+      </c>
+      <c r="AN116">
+        <v>1.31</v>
+      </c>
+      <c r="AO116">
+        <v>1.3</v>
+      </c>
+      <c r="AP116">
+        <v>1.59</v>
+      </c>
+      <c r="AQ116">
+        <v>1</v>
+      </c>
+      <c r="AR116">
+        <v>0.75</v>
+      </c>
+      <c r="AS116">
+        <v>1.22</v>
+      </c>
+      <c r="AT116">
+        <v>0.67</v>
+      </c>
+      <c r="AU116">
+        <v>1.34</v>
+      </c>
+      <c r="AV116">
+        <v>1.51</v>
+      </c>
+      <c r="AW116">
+        <v>2.85</v>
+      </c>
+      <c r="AX116">
+        <v>0</v>
+      </c>
+      <c r="AY116">
+        <v>0</v>
+      </c>
+      <c r="AZ116">
+        <v>0</v>
+      </c>
+      <c r="BA116">
+        <v>0</v>
+      </c>
+      <c r="BB116">
+        <v>0</v>
+      </c>
+      <c r="BC116">
+        <v>0</v>
+      </c>
+      <c r="BD116">
+        <v>0</v>
+      </c>
+      <c r="BE116">
+        <v>0</v>
+      </c>
+      <c r="BF116">
+        <v>4</v>
+      </c>
+      <c r="BG116">
+        <v>7</v>
+      </c>
+      <c r="BH116">
+        <v>7</v>
+      </c>
+      <c r="BI116">
+        <v>9</v>
+      </c>
+      <c r="BJ116">
+        <v>11</v>
+      </c>
+      <c r="BK116">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>5409886</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45136.6875</v>
+      </c>
+      <c r="F117">
+        <v>17</v>
+      </c>
+      <c r="G117" t="s">
+        <v>75</v>
+      </c>
+      <c r="H117" t="s">
+        <v>77</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117" t="s">
+        <v>82</v>
+      </c>
+      <c r="P117" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q117">
+        <v>9</v>
+      </c>
+      <c r="R117">
+        <v>5</v>
+      </c>
+      <c r="S117">
+        <v>14</v>
+      </c>
+      <c r="T117">
+        <v>3</v>
+      </c>
+      <c r="U117">
+        <v>1.91</v>
+      </c>
+      <c r="V117">
+        <v>4</v>
+      </c>
+      <c r="W117">
+        <v>1.55</v>
+      </c>
+      <c r="X117">
+        <v>2.3</v>
+      </c>
+      <c r="Y117">
+        <v>3.56</v>
+      </c>
+      <c r="Z117">
+        <v>1.25</v>
+      </c>
+      <c r="AA117">
+        <v>10</v>
+      </c>
+      <c r="AB117">
+        <v>1.02</v>
+      </c>
+      <c r="AC117">
+        <v>2.1</v>
+      </c>
+      <c r="AD117">
+        <v>3.3</v>
+      </c>
+      <c r="AE117">
+        <v>3</v>
+      </c>
+      <c r="AF117">
+        <v>1.07</v>
+      </c>
+      <c r="AG117">
+        <v>6.25</v>
+      </c>
+      <c r="AH117">
+        <v>1.5</v>
+      </c>
+      <c r="AI117">
+        <v>2.45</v>
+      </c>
+      <c r="AJ117">
+        <v>2.5</v>
+      </c>
+      <c r="AK117">
+        <v>1.5</v>
+      </c>
+      <c r="AL117">
+        <v>2.09</v>
+      </c>
+      <c r="AM117">
+        <v>1.63</v>
+      </c>
+      <c r="AN117">
+        <v>1.38</v>
+      </c>
+      <c r="AO117">
+        <v>1.34</v>
+      </c>
+      <c r="AP117">
+        <v>1.44</v>
+      </c>
+      <c r="AQ117">
+        <v>1.5</v>
+      </c>
+      <c r="AR117">
+        <v>1.63</v>
+      </c>
+      <c r="AS117">
+        <v>1.44</v>
+      </c>
+      <c r="AT117">
+        <v>1.56</v>
+      </c>
+      <c r="AU117">
+        <v>1.66</v>
+      </c>
+      <c r="AV117">
+        <v>1.22</v>
+      </c>
+      <c r="AW117">
+        <v>2.88</v>
+      </c>
+      <c r="AX117">
+        <v>0</v>
+      </c>
+      <c r="AY117">
+        <v>0</v>
+      </c>
+      <c r="AZ117">
+        <v>0</v>
+      </c>
+      <c r="BA117">
+        <v>0</v>
+      </c>
+      <c r="BB117">
+        <v>0</v>
+      </c>
+      <c r="BC117">
+        <v>0</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>7</v>
+      </c>
+      <c r="BG117">
+        <v>0</v>
+      </c>
+      <c r="BH117">
+        <v>7</v>
+      </c>
+      <c r="BI117">
+        <v>8</v>
+      </c>
+      <c r="BJ117">
+        <v>14</v>
+      </c>
+      <c r="BK117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>5409881</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45137.54166666666</v>
+      </c>
+      <c r="F118">
+        <v>17</v>
+      </c>
+      <c r="G118" t="s">
+        <v>65</v>
+      </c>
+      <c r="H118" t="s">
+        <v>71</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>163</v>
+      </c>
+      <c r="P118" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q118">
+        <v>6</v>
+      </c>
+      <c r="R118">
+        <v>5</v>
+      </c>
+      <c r="S118">
+        <v>11</v>
+      </c>
+      <c r="T118">
+        <v>3</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
+        <v>3.6</v>
+      </c>
+      <c r="W118">
+        <v>1.49</v>
+      </c>
+      <c r="X118">
+        <v>2.4</v>
+      </c>
+      <c r="Y118">
+        <v>3.3</v>
+      </c>
+      <c r="Z118">
+        <v>1.28</v>
+      </c>
+      <c r="AA118">
+        <v>9.5</v>
+      </c>
+      <c r="AB118">
+        <v>1.04</v>
+      </c>
+      <c r="AC118">
+        <v>2.25</v>
+      </c>
+      <c r="AD118">
+        <v>3.2</v>
+      </c>
+      <c r="AE118">
+        <v>2.88</v>
+      </c>
+      <c r="AF118">
+        <v>1.03</v>
+      </c>
+      <c r="AG118">
+        <v>7</v>
+      </c>
+      <c r="AH118">
+        <v>1.38</v>
+      </c>
+      <c r="AI118">
+        <v>2.75</v>
+      </c>
+      <c r="AJ118">
+        <v>2.2</v>
+      </c>
+      <c r="AK118">
+        <v>1.65</v>
+      </c>
+      <c r="AL118">
+        <v>1.93</v>
+      </c>
+      <c r="AM118">
+        <v>1.75</v>
+      </c>
+      <c r="AN118">
+        <v>1.37</v>
+      </c>
+      <c r="AO118">
+        <v>1.32</v>
+      </c>
+      <c r="AP118">
+        <v>1.57</v>
+      </c>
+      <c r="AQ118">
+        <v>2.38</v>
+      </c>
+      <c r="AR118">
+        <v>2</v>
+      </c>
+      <c r="AS118">
+        <v>2.22</v>
+      </c>
+      <c r="AT118">
+        <v>1.88</v>
+      </c>
+      <c r="AU118">
+        <v>1.59</v>
+      </c>
+      <c r="AV118">
+        <v>1.42</v>
+      </c>
+      <c r="AW118">
+        <v>3.01</v>
+      </c>
+      <c r="AX118">
+        <v>0</v>
+      </c>
+      <c r="AY118">
+        <v>0</v>
+      </c>
+      <c r="AZ118">
+        <v>0</v>
+      </c>
+      <c r="BA118">
+        <v>0</v>
+      </c>
+      <c r="BB118">
+        <v>0</v>
+      </c>
+      <c r="BC118">
+        <v>2</v>
+      </c>
+      <c r="BD118">
+        <v>0</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>4</v>
+      </c>
+      <c r="BG118">
+        <v>5</v>
+      </c>
+      <c r="BH118">
+        <v>2</v>
+      </c>
+      <c r="BI118">
+        <v>3</v>
+      </c>
+      <c r="BJ118">
+        <v>6</v>
+      </c>
+      <c r="BK118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>5409883</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45137.66666666666</v>
+      </c>
+      <c r="F119">
+        <v>17</v>
+      </c>
+      <c r="G119" t="s">
+        <v>67</v>
+      </c>
+      <c r="H119" t="s">
+        <v>76</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>164</v>
+      </c>
+      <c r="P119" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q119">
+        <v>1</v>
+      </c>
+      <c r="R119">
+        <v>8</v>
+      </c>
+      <c r="S119">
+        <v>9</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>2.05</v>
+      </c>
+      <c r="V119">
+        <v>3.75</v>
+      </c>
+      <c r="W119">
+        <v>1.4</v>
+      </c>
+      <c r="X119">
+        <v>2.5</v>
+      </c>
+      <c r="Y119">
+        <v>3.04</v>
+      </c>
+      <c r="Z119">
+        <v>1.33</v>
+      </c>
+      <c r="AA119">
+        <v>7.7</v>
+      </c>
+      <c r="AB119">
+        <v>1.05</v>
+      </c>
+      <c r="AC119">
+        <v>2.2</v>
+      </c>
+      <c r="AD119">
+        <v>3.2</v>
+      </c>
+      <c r="AE119">
+        <v>3</v>
+      </c>
+      <c r="AF119">
+        <v>1.02</v>
+      </c>
+      <c r="AG119">
+        <v>8.25</v>
+      </c>
+      <c r="AH119">
+        <v>1.33</v>
+      </c>
+      <c r="AI119">
+        <v>2.8</v>
+      </c>
+      <c r="AJ119">
+        <v>2.18</v>
+      </c>
+      <c r="AK119">
+        <v>1.62</v>
+      </c>
+      <c r="AL119">
+        <v>1.84</v>
+      </c>
+      <c r="AM119">
+        <v>1.82</v>
+      </c>
+      <c r="AN119">
+        <v>1.29</v>
+      </c>
+      <c r="AO119">
+        <v>1.29</v>
+      </c>
+      <c r="AP119">
+        <v>1.63</v>
+      </c>
+      <c r="AQ119">
+        <v>1.38</v>
+      </c>
+      <c r="AR119">
+        <v>0.75</v>
+      </c>
+      <c r="AS119">
+        <v>1.56</v>
+      </c>
+      <c r="AT119">
+        <v>0.67</v>
+      </c>
+      <c r="AU119">
+        <v>1.52</v>
+      </c>
+      <c r="AV119">
+        <v>1.07</v>
+      </c>
+      <c r="AW119">
+        <v>2.59</v>
+      </c>
+      <c r="AX119">
+        <v>0</v>
+      </c>
+      <c r="AY119">
+        <v>0</v>
+      </c>
+      <c r="AZ119">
+        <v>0</v>
+      </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>0</v>
+      </c>
+      <c r="BC119">
+        <v>0</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>8</v>
+      </c>
+      <c r="BG119">
+        <v>2</v>
+      </c>
+      <c r="BH119">
+        <v>6</v>
+      </c>
+      <c r="BI119">
+        <v>7</v>
+      </c>
+      <c r="BJ119">
+        <v>14</v>
+      </c>
+      <c r="BK119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>5409885</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45137.70833333334</v>
+      </c>
+      <c r="F120">
+        <v>17</v>
+      </c>
+      <c r="G120" t="s">
+        <v>69</v>
+      </c>
+      <c r="H120" t="s">
+        <v>72</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>4</v>
+      </c>
+      <c r="O120" t="s">
+        <v>165</v>
+      </c>
+      <c r="P120" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q120">
+        <v>5</v>
+      </c>
+      <c r="R120">
+        <v>4</v>
+      </c>
+      <c r="S120">
+        <v>9</v>
+      </c>
+      <c r="T120">
+        <v>2.6</v>
+      </c>
+      <c r="U120">
+        <v>2.05</v>
+      </c>
+      <c r="V120">
+        <v>4.33</v>
+      </c>
+      <c r="W120">
+        <v>1.4</v>
+      </c>
+      <c r="X120">
+        <v>2.75</v>
+      </c>
+      <c r="Y120">
+        <v>3</v>
+      </c>
+      <c r="Z120">
+        <v>1.33</v>
+      </c>
+      <c r="AA120">
+        <v>8</v>
+      </c>
+      <c r="AB120">
+        <v>1.06</v>
+      </c>
+      <c r="AC120">
+        <v>1.9</v>
+      </c>
+      <c r="AD120">
+        <v>3.13</v>
+      </c>
+      <c r="AE120">
+        <v>3.7</v>
+      </c>
+      <c r="AF120">
+        <v>1.05</v>
+      </c>
+      <c r="AG120">
+        <v>8.5</v>
+      </c>
+      <c r="AH120">
+        <v>1.33</v>
+      </c>
+      <c r="AI120">
+        <v>3</v>
+      </c>
+      <c r="AJ120">
+        <v>2.05</v>
+      </c>
+      <c r="AK120">
+        <v>1.7</v>
+      </c>
+      <c r="AL120">
+        <v>1.9</v>
+      </c>
+      <c r="AM120">
+        <v>1.86</v>
+      </c>
+      <c r="AN120">
+        <v>1.2</v>
+      </c>
+      <c r="AO120">
+        <v>1.29</v>
+      </c>
+      <c r="AP120">
+        <v>1.73</v>
+      </c>
+      <c r="AQ120">
+        <v>1.57</v>
+      </c>
+      <c r="AR120">
+        <v>0.14</v>
+      </c>
+      <c r="AS120">
+        <v>1.38</v>
+      </c>
+      <c r="AT120">
+        <v>0.5</v>
+      </c>
+      <c r="AU120">
+        <v>1.78</v>
+      </c>
+      <c r="AV120">
+        <v>1.3</v>
+      </c>
+      <c r="AW120">
+        <v>3.08</v>
+      </c>
+      <c r="AX120">
+        <v>0</v>
+      </c>
+      <c r="AY120">
+        <v>0</v>
+      </c>
+      <c r="AZ120">
+        <v>0</v>
+      </c>
+      <c r="BA120">
+        <v>0</v>
+      </c>
+      <c r="BB120">
+        <v>0</v>
+      </c>
+      <c r="BC120">
+        <v>0</v>
+      </c>
+      <c r="BD120">
+        <v>0</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>7</v>
+      </c>
+      <c r="BG120">
+        <v>8</v>
+      </c>
+      <c r="BH120">
+        <v>12</v>
+      </c>
+      <c r="BI120">
+        <v>8</v>
+      </c>
+      <c r="BJ120">
+        <v>19</v>
+      </c>
+      <c r="BK120">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
